--- a/compare_ud.xlsx
+++ b/compare_ud.xlsx
@@ -569,7 +569,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12002500004000074</t>
+          <t>12101500051000372</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12001500051001885</t>
+          <t>22101500001000020</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       <c r="B4" s="7" t="n"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12001500051000475</t>
+          <t>12001500051000782</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12001500051001916</t>
+          <t>12001500051000262</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12108500004000003</t>
+          <t>607</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12001500051000781</t>
+          <t>12001500051001890</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12001500051000945</t>
+          <t>12001500051003130</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       <c r="B9" s="7" t="n"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>12001500051001535</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12101500051000026</t>
+          <t>12101500051000082</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12101500051000050</t>
+          <t>12001500051000263</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12001500051003364</t>
+          <t>12001500051003438</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12001500051000474</t>
+          <t>334</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       <c r="B14" s="7" t="n"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12001500051000465</t>
+          <t>010</t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       <c r="B15" s="7" t="n"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12001500051003447</t>
+          <t>12001500051003269</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12101500051000079</t>
+          <t>12001500051001492</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       <c r="B17" s="7" t="n"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>12001500051000801</t>
+          <t>12108500004000003</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       <c r="B18" s="7" t="n"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>12002500004000057</t>
+          <t>004</t>
         </is>
       </c>
     </row>
@@ -830,7 +830,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>12001500051000710</t>
+          <t>12001500051003080</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       <c r="B20" s="7" t="n"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>12001500051001346</t>
+          <t>12001500051001787</t>
         </is>
       </c>
     </row>
@@ -852,7 +852,7 @@
       <c r="B21" s="7" t="n"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>12001500051002421</t>
+          <t>12001500051002745</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       <c r="B22" s="7" t="n"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>12001500051003027</t>
+          <t>12001500051002411</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       <c r="B23" s="7" t="n"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>12001500051003415</t>
+          <t>12101500051000330</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>12001500051000378</t>
+          <t>12001500051001163</t>
         </is>
       </c>
     </row>
@@ -908,7 +908,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>12001500051002586</t>
+          <t>12001500051002634</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>12001500051002103</t>
+          <t>12001500051002586</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>12001500051003080</t>
+          <t>12001500051002421</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>12101500051000093</t>
+          <t>12001500051001153</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>12001500051001341</t>
+          <t>12002500004000061</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>12002500004000157</t>
+          <t>12001500051002580</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>12001500051000550</t>
+          <t>303</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>12001500051001906</t>
+          <t>12001500051001889</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>12001500051003044</t>
+          <t>12001500051001970</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>12001500051001153</t>
+          <t>12001500051000798</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>12002500004000122</t>
+          <t>12001500051001295</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>12001500051003047</t>
+          <t>12102500004000009</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>12001500051001787</t>
+          <t>12001500051002607</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>12001500051002872</t>
+          <t>005</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>12001500051003106</t>
+          <t>12001500051002801</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>12001500051001066</t>
+          <t>12001500051003366</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>11901500051000159</t>
+          <t>12002500004000074</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>12001500051000646</t>
+          <t>12002500004000141</t>
         </is>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>12101500051000131</t>
+          <t>12001500051003115</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>12001500051001702</t>
+          <t>12001500051000781</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>001</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       <c r="B46" s="7" t="n"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>010</t>
+          <t>12001500051003447</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>12001500051002569</t>
+          <t>12001500051002024</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>008</t>
+          <t>12001500051001706</t>
         </is>
       </c>
     </row>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>11901500051002868</t>
+          <t>12002500004000073</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>11901500051003333</t>
+          <t>12001500051001164</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>12002500004000143</t>
+          <t>12108500004000001</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>12001500051001515</t>
+          <t>12001500051001066</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>12001500051003366</t>
+          <t>12001500051003481</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>12001500051002964</t>
+          <t>12001500051000465</t>
         </is>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>12001500051001214</t>
+          <t>12001500051003289</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>12001500051002589</t>
+          <t>12001500051003106</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>12001500051002605</t>
+          <t>201</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>12001500051003212</t>
+          <t>12001500051000474</t>
         </is>
       </c>
     </row>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>12001500051001483</t>
+          <t>12001500051001406</t>
         </is>
       </c>
     </row>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>12001500051001360</t>
+          <t>12101500051000013</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>12001500051001716</t>
+          <t>12001500051001822</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>12001500051002620</t>
+          <t>12001500051001338</t>
         </is>
       </c>
     </row>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>12001500051001592</t>
+          <t>12001500051000710</t>
         </is>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>12001500051003364</t>
         </is>
       </c>
     </row>
@@ -1580,7 +1580,7 @@
       <c r="B65" s="7" t="n"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>12001500051001124</t>
+          <t>12001500051002832</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>12001500051002913</t>
+          <t>12001500051000945</t>
         </is>
       </c>
     </row>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>12001500051000782</t>
+          <t>12001500051000455</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       <c r="B68" s="7" t="n"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>12101500051001024</t>
+          <t>12001500051002523</t>
         </is>
       </c>
     </row>
@@ -1640,7 +1640,7 @@
       <c r="B69" s="7" t="n"/>
       <c r="C69" t="inlineStr">
         <is>
-          <t>12001500051001985</t>
+          <t>12001500051001702</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>12001500051002411</t>
+          <t>12001500051002589</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>12001500051001822</t>
+          <t>12101500001000004</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       <c r="B72" s="7" t="n"/>
       <c r="C72" t="inlineStr">
         <is>
-          <t>12001500051002380</t>
+          <t>12002500004000157</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>12101500051000106</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
       <c r="B74" s="7" t="n"/>
       <c r="C74" t="inlineStr">
         <is>
-          <t>12101500051000431</t>
+          <t>12001500051001916</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>12001500051001163</t>
+          <t>12001500051003415</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>12101500051000082</t>
+          <t>12001500051002937</t>
         </is>
       </c>
     </row>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>12001500051002582</t>
+          <t>202</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>12001500051002023</t>
+          <t>12101500051000093</t>
         </is>
       </c>
     </row>
@@ -1802,7 +1802,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>12002500004000141</t>
+          <t>12001500051001947</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>12101500051000013</t>
+          <t>12001500051003242</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>12001500051000625</t>
+          <t>12001500051001360</t>
         </is>
       </c>
     </row>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>009</t>
+          <t>12001500051000809</t>
         </is>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>12001500051001838</t>
+          <t>12108500004000005</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>12001500051000262</t>
+          <t>12002500004000143</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>12001500051001758</t>
+          <t>12002500004000050</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>12001500051001338</t>
+          <t>12001500051002605</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>12001500051003199</t>
         </is>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>12001500051003115</t>
+          <t>006</t>
         </is>
       </c>
     </row>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>12001500051003335</t>
+          <t>12001500051001333</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>12001500051001890</t>
+          <t>12001500051001483</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>12001500051002983</t>
+          <t>11901500051003333</t>
         </is>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>12001500051003289</t>
+          <t>12001500051000475</t>
         </is>
       </c>
     </row>
@@ -2036,7 +2036,7 @@
       <c r="B93" s="7" t="n"/>
       <c r="C93" t="inlineStr">
         <is>
-          <t>12001500051002590</t>
+          <t>12001500051002917</t>
         </is>
       </c>
     </row>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>12001500051002917</t>
+          <t>12001500051003047</t>
         </is>
       </c>
     </row>
@@ -2070,7 +2070,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>12001500051002024</t>
+          <t>12001500051001166</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       <c r="B96" s="7" t="n"/>
       <c r="C96" t="inlineStr">
         <is>
-          <t>12001500051002937</t>
+          <t>12001500051000801</t>
         </is>
       </c>
     </row>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>12001500051002508</t>
+          <t>12002500004000057</t>
         </is>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>12102500004000009</t>
+          <t>12001500051000419</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>12101500001000004</t>
+          <t>11901500051002868</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>12001500051002552</t>
+          <t>12001500051000196</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>12001500051001333</t>
+          <t>12001500051000550</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       <c r="B102" s="7" t="n"/>
       <c r="C102" t="inlineStr">
         <is>
-          <t>12001500051000576</t>
+          <t>12001500051002380</t>
         </is>
       </c>
     </row>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>12001500051002607</t>
+          <t>12001500051002691</t>
         </is>
       </c>
     </row>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>12001500051002634</t>
+          <t>12001500051002582</t>
         </is>
       </c>
     </row>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>12001500051000809</t>
+          <t>12001500051002508</t>
         </is>
       </c>
     </row>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>12001500051002801</t>
+          <t>12001500051000644</t>
         </is>
       </c>
     </row>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>12001500051001259</t>
+          <t>12001500051000397</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>12001500051003438</t>
+          <t>12001500051003280</t>
         </is>
       </c>
     </row>
@@ -2300,7 +2300,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>12001500051000576</t>
         </is>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>12001500051000644</t>
+          <t>12001500051003287</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>12001500051001492</t>
+          <t>109</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>12001500051003199</t>
+          <t>12001500051002476</t>
         </is>
       </c>
     </row>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>12001500051002884</t>
+          <t>12001500051000880</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>12001500051001164</t>
+          <t>12101500051000131</t>
         </is>
       </c>
     </row>
@@ -2398,7 +2398,7 @@
       <c r="B115" s="7" t="n"/>
       <c r="C115" t="inlineStr">
         <is>
-          <t>12001500051003150</t>
+          <t>12001500051000713</t>
         </is>
       </c>
     </row>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>12001500051003020</t>
+          <t>12001500051000378</t>
         </is>
       </c>
     </row>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>12001500051002745</t>
+          <t>12001500051001885</t>
         </is>
       </c>
     </row>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>12001500051002023</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>12002500004000061</t>
+          <t>12001500051002029</t>
         </is>
       </c>
     </row>
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>12001500051003242</t>
+          <t>12001500051003001</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       <c r="B121" s="7" t="n"/>
       <c r="C121" t="inlineStr">
         <is>
-          <t>12001500051003481</t>
+          <t>12001500051001838</t>
         </is>
       </c>
     </row>
@@ -2509,7 +2509,7 @@
       <c r="B122" s="7" t="n"/>
       <c r="C122" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>12002500004000149</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>12001500051001706</t>
+          <t>12001500051003368</t>
         </is>
       </c>
     </row>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>12001500051001812</t>
+          <t>12001500051001140</t>
         </is>
       </c>
     </row>
@@ -2560,7 +2560,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>12001500051002523</t>
+          <t>12101500051000026</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>12101500051000372</t>
+          <t>009</t>
         </is>
       </c>
     </row>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>12001500051002580</t>
+          <t>12001500051003150</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>12101500051000404</t>
         </is>
       </c>
     </row>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>12001500051000455</t>
+          <t>12001500051001341</t>
         </is>
       </c>
     </row>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>22101500001000020</t>
+          <t>12001500051000421</t>
         </is>
       </c>
     </row>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>12001500051001166</t>
+          <t>12001500051002098</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
       <c r="B132" s="7" t="n"/>
       <c r="C132" t="inlineStr">
         <is>
-          <t>12101500051000330</t>
+          <t>12001500051003335</t>
         </is>
       </c>
     </row>
@@ -2688,7 +2688,7 @@
       <c r="B133" s="7" t="n"/>
       <c r="C133" t="inlineStr">
         <is>
-          <t>12001500051000486</t>
+          <t>12001500051001515</t>
         </is>
       </c>
     </row>
@@ -2701,7 +2701,7 @@
       <c r="B134" s="7" t="n"/>
       <c r="C134" t="inlineStr">
         <is>
-          <t>12001500051003186</t>
+          <t>12001500051002620</t>
         </is>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
       <c r="B135" s="7" t="n"/>
       <c r="C135" t="inlineStr">
         <is>
-          <t>12108500004000005</t>
+          <t>12001500051003186</t>
         </is>
       </c>
     </row>
@@ -2727,7 +2727,7 @@
       <c r="B136" s="7" t="n"/>
       <c r="C136" t="inlineStr">
         <is>
-          <t>12001500051000485</t>
+          <t>12001500051003352</t>
         </is>
       </c>
     </row>
@@ -2740,7 +2740,7 @@
       <c r="B137" s="7" t="n"/>
       <c r="C137" t="inlineStr">
         <is>
-          <t>12002500004000104</t>
+          <t>12001500051001758</t>
         </is>
       </c>
     </row>
@@ -2753,7 +2753,7 @@
       <c r="B138" s="7" t="n"/>
       <c r="C138" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>12001500051003391</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
       <c r="B139" s="7" t="n"/>
       <c r="C139" t="inlineStr">
         <is>
-          <t>12001500051001140</t>
+          <t>12001500051001085</t>
         </is>
       </c>
     </row>
@@ -2779,7 +2779,7 @@
       <c r="B140" s="7" t="n"/>
       <c r="C140" t="inlineStr">
         <is>
-          <t>12001500051001889</t>
+          <t>12001500051003212</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       <c r="B141" s="7" t="n"/>
       <c r="C141" t="inlineStr">
         <is>
-          <t>12101500051002441</t>
+          <t>12001500051000485</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       <c r="B142" s="7" t="n"/>
       <c r="C142" t="inlineStr">
         <is>
-          <t>12101500051000106</t>
+          <t>12001500051000743</t>
         </is>
       </c>
     </row>
@@ -2818,7 +2818,7 @@
       <c r="B143" s="7" t="n"/>
       <c r="C143" t="inlineStr">
         <is>
-          <t>12001500051003287</t>
+          <t>12001500051001346</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       <c r="B144" s="7" t="n"/>
       <c r="C144" t="inlineStr">
         <is>
-          <t>12001500051001535</t>
+          <t>12001500051001592</t>
         </is>
       </c>
     </row>
@@ -2844,7 +2844,7 @@
       <c r="B145" s="7" t="n"/>
       <c r="C145" t="inlineStr">
         <is>
-          <t>12002500004000149</t>
+          <t>003</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
       <c r="B146" s="7" t="n"/>
       <c r="C146" t="inlineStr">
         <is>
-          <t>12001500051001085</t>
+          <t>12101500051000079</t>
         </is>
       </c>
     </row>
@@ -2870,7 +2870,7 @@
       <c r="B147" s="7" t="n"/>
       <c r="C147" t="inlineStr">
         <is>
-          <t>12001500051001970</t>
+          <t>12001500051002590</t>
         </is>
       </c>
     </row>
@@ -2883,7 +2883,7 @@
       <c r="B148" s="7" t="n"/>
       <c r="C148" t="inlineStr">
         <is>
-          <t>12001500051000798</t>
+          <t>12001500051001335</t>
         </is>
       </c>
     </row>
@@ -2896,7 +2896,7 @@
       <c r="B149" s="7" t="n"/>
       <c r="C149" t="inlineStr">
         <is>
-          <t>12101500051000404</t>
+          <t>12001500051002552</t>
         </is>
       </c>
     </row>
@@ -2909,7 +2909,7 @@
       <c r="B150" s="7" t="n"/>
       <c r="C150" t="inlineStr">
         <is>
-          <t>12001500051001947</t>
+          <t>12001500051001985</t>
         </is>
       </c>
     </row>
@@ -2922,7 +2922,7 @@
       <c r="B151" s="7" t="n"/>
       <c r="C151" t="inlineStr">
         <is>
-          <t>12002500004000073</t>
+          <t>12001500051002983</t>
         </is>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
       <c r="B152" s="7" t="n"/>
       <c r="C152" t="inlineStr">
         <is>
-          <t>12001500051001406</t>
+          <t>12001500051001906</t>
         </is>
       </c>
     </row>
@@ -2948,7 +2948,7 @@
       <c r="B153" s="7" t="n"/>
       <c r="C153" t="inlineStr">
         <is>
-          <t>12001500051003352</t>
+          <t>12001500051002872</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       <c r="B154" s="7" t="n"/>
       <c r="C154" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>12001500051001259</t>
         </is>
       </c>
     </row>
@@ -2974,7 +2974,7 @@
       <c r="B155" s="7" t="n"/>
       <c r="C155" t="inlineStr">
         <is>
-          <t>12001500051003391</t>
+          <t>12001500051001461</t>
         </is>
       </c>
     </row>
@@ -2987,7 +2987,7 @@
       <c r="B156" s="7" t="n"/>
       <c r="C156" t="inlineStr">
         <is>
-          <t>12001500051000421</t>
+          <t>12001500051001716</t>
         </is>
       </c>
     </row>
@@ -3000,7 +3000,7 @@
       <c r="B157" s="7" t="n"/>
       <c r="C157" t="inlineStr">
         <is>
-          <t>12001500051003269</t>
+          <t>11901500051002336</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       <c r="B158" s="7" t="n"/>
       <c r="C158" t="inlineStr">
         <is>
-          <t>12101500051000019</t>
+          <t>12001500051002103</t>
         </is>
       </c>
     </row>
@@ -3026,7 +3026,7 @@
       <c r="B159" s="7" t="n"/>
       <c r="C159" t="inlineStr">
         <is>
-          <t>12001500051003280</t>
+          <t>12101500051000360</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       <c r="B160" s="7" t="n"/>
       <c r="C160" t="inlineStr">
         <is>
-          <t>12001500051001461</t>
+          <t>12001500051000646</t>
         </is>
       </c>
     </row>
@@ -3052,7 +3052,7 @@
       <c r="B161" s="7" t="n"/>
       <c r="C161" t="inlineStr">
         <is>
-          <t>12002500004000050</t>
+          <t>008</t>
         </is>
       </c>
     </row>
@@ -3065,7 +3065,7 @@
       <c r="B162" s="7" t="n"/>
       <c r="C162" t="inlineStr">
         <is>
-          <t>12001500051002098</t>
+          <t>12001500051002884</t>
         </is>
       </c>
     </row>
@@ -3078,7 +3078,7 @@
       <c r="B163" s="7" t="n"/>
       <c r="C163" t="inlineStr">
         <is>
-          <t>12001500051003130</t>
+          <t>12001500051002964</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       <c r="B164" s="7" t="n"/>
       <c r="C164" t="inlineStr">
         <is>
-          <t>12001500051000743</t>
+          <t>12001500051002569</t>
         </is>
       </c>
     </row>
@@ -3104,7 +3104,7 @@
       <c r="B165" s="7" t="n"/>
       <c r="C165" t="inlineStr">
         <is>
-          <t>12101500051000360</t>
+          <t>12001500051001812</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       <c r="B166" s="7" t="n"/>
       <c r="C166" t="inlineStr">
         <is>
-          <t>12001500051000880</t>
+          <t>12002500004000122</t>
         </is>
       </c>
     </row>
@@ -3130,7 +3130,7 @@
       <c r="B167" s="7" t="n"/>
       <c r="C167" t="inlineStr">
         <is>
-          <t>12001500051002476</t>
+          <t>12101500051001024</t>
         </is>
       </c>
     </row>
@@ -3143,7 +3143,7 @@
       <c r="B168" s="7" t="n"/>
       <c r="C168" t="inlineStr">
         <is>
-          <t>12001500051002832</t>
+          <t>12101500051000431</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
       <c r="B169" s="7" t="n"/>
       <c r="C169" t="inlineStr">
         <is>
-          <t>12108500004000001</t>
+          <t>12001500051000625</t>
         </is>
       </c>
     </row>
@@ -3169,7 +3169,7 @@
       <c r="B170" s="7" t="n"/>
       <c r="C170" t="inlineStr">
         <is>
-          <t>12001500051003001</t>
+          <t>12101500051002441</t>
         </is>
       </c>
     </row>
@@ -3182,7 +3182,7 @@
       <c r="B171" s="7" t="n"/>
       <c r="C171" t="inlineStr">
         <is>
-          <t>12001500051002029</t>
+          <t>11901500051000159</t>
         </is>
       </c>
     </row>
@@ -3195,7 +3195,7 @@
       <c r="B172" s="7" t="n"/>
       <c r="C172" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>12001500051001124</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
       <c r="B173" s="7" t="n"/>
       <c r="C173" t="inlineStr">
         <is>
-          <t>12001500051000263</t>
+          <t>12002500004000104</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       <c r="B174" s="7" t="n"/>
       <c r="C174" t="inlineStr">
         <is>
-          <t>12001500051000713</t>
+          <t>12001500051003027</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       <c r="B175" s="7" t="n"/>
       <c r="C175" t="inlineStr">
         <is>
-          <t>11901500051002336</t>
+          <t>12101500051000050</t>
         </is>
       </c>
     </row>
@@ -3247,7 +3247,7 @@
       <c r="B176" s="7" t="n"/>
       <c r="C176" t="inlineStr">
         <is>
-          <t>12001500051003368</t>
+          <t>12001500051001214</t>
         </is>
       </c>
     </row>
@@ -3260,7 +3260,7 @@
       <c r="B177" s="7" t="n"/>
       <c r="C177" t="inlineStr">
         <is>
-          <t>12001500051000419</t>
+          <t>12001500051003330</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       <c r="B178" s="7" t="n"/>
       <c r="C178" t="inlineStr">
         <is>
-          <t>12001500051001651</t>
+          <t>12108500004000004</t>
         </is>
       </c>
     </row>
@@ -3286,7 +3286,7 @@
       <c r="B179" s="7" t="n"/>
       <c r="C179" t="inlineStr">
         <is>
-          <t>12001500051003330</t>
+          <t>543</t>
         </is>
       </c>
     </row>
@@ -3299,7 +3299,7 @@
       <c r="B180" s="7" t="n"/>
       <c r="C180" t="inlineStr">
         <is>
-          <t>12001500051001295</t>
+          <t>12001500051002913</t>
         </is>
       </c>
     </row>
@@ -3312,7 +3312,7 @@
       <c r="B181" s="7" t="n"/>
       <c r="C181" t="inlineStr">
         <is>
-          <t>12108500004000004</t>
+          <t>12001500051003020</t>
         </is>
       </c>
     </row>
@@ -3325,7 +3325,7 @@
       <c r="B182" s="7" t="n"/>
       <c r="C182" t="inlineStr">
         <is>
-          <t>12001500051000196</t>
+          <t>12001500051003132</t>
         </is>
       </c>
     </row>
@@ -3338,7 +3338,7 @@
       <c r="B183" s="7" t="n"/>
       <c r="C183" t="inlineStr">
         <is>
-          <t>12001500051001335</t>
+          <t>12001500051001651</t>
         </is>
       </c>
     </row>
@@ -3351,7 +3351,7 @@
       <c r="B184" s="7" t="n"/>
       <c r="C184" t="inlineStr">
         <is>
-          <t>12001500051000397</t>
+          <t>12001500051003044</t>
         </is>
       </c>
     </row>
@@ -3364,7 +3364,7 @@
       <c r="B185" s="7" t="n"/>
       <c r="C185" t="inlineStr">
         <is>
-          <t>12001500051003132</t>
+          <t>12101500051000019</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       <c r="B186" s="7" t="n"/>
       <c r="C186" t="inlineStr">
         <is>
-          <t>12001500051002691</t>
+          <t>12001500051000486</t>
         </is>
       </c>
     </row>

--- a/compare_ud.xlsx
+++ b/compare_ud.xlsx
@@ -57,508 +57,508 @@
     <t>11901500051002868</t>
   </si>
   <si>
+    <t>12001500051001335</t>
+  </si>
+  <si>
+    <t>.11901500051002336</t>
+  </si>
+  <si>
+    <t>12001500051000262</t>
+  </si>
+  <si>
+    <t>12101500051000079</t>
+  </si>
+  <si>
+    <t>.11901500051002868</t>
+  </si>
+  <si>
+    <t>12001500051000455</t>
+  </si>
+  <si>
+    <t>12001500051003289</t>
+  </si>
+  <si>
+    <t>.11901500051003333</t>
+  </si>
+  <si>
+    <t>12001500051000465</t>
+  </si>
+  <si>
+    <t>12001500051003132</t>
+  </si>
+  <si>
+    <t>.12002500004000050</t>
+  </si>
+  <si>
+    <t>12001500051000485</t>
+  </si>
+  <si>
+    <t>12001500051001492</t>
+  </si>
+  <si>
+    <t>.12002500004000057</t>
+  </si>
+  <si>
+    <t>12001500051000576</t>
+  </si>
+  <si>
+    <t>12001500051002691</t>
+  </si>
+  <si>
+    <t>12001500051000625</t>
+  </si>
+  <si>
+    <t>12001500051001812</t>
+  </si>
+  <si>
+    <t>.12002500004000061</t>
+  </si>
+  <si>
+    <t>12001500051000644</t>
+  </si>
+  <si>
+    <t>12001500051001024</t>
+  </si>
+  <si>
+    <t>.12002500004000073</t>
+  </si>
+  <si>
+    <t>12001500051000646</t>
+  </si>
+  <si>
+    <t>12001500051003027</t>
+  </si>
+  <si>
+    <t>.12002500004000074</t>
+  </si>
+  <si>
+    <t>12001500051000710</t>
+  </si>
+  <si>
+    <t>12001500051003364</t>
+  </si>
+  <si>
+    <t>.12002500004000104</t>
+  </si>
+  <si>
+    <t>12001500051000713</t>
+  </si>
+  <si>
+    <t>12001500051001705</t>
+  </si>
+  <si>
+    <t>.12002500004000122</t>
+  </si>
+  <si>
+    <t>12001500051000781</t>
+  </si>
+  <si>
+    <t>41901500051002191</t>
+  </si>
+  <si>
+    <t>.12002500004000141</t>
+  </si>
+  <si>
+    <t>12001500051000798</t>
+  </si>
+  <si>
+    <t>12001500051002339</t>
+  </si>
+  <si>
+    <t>12001500051000809</t>
+  </si>
+  <si>
+    <t>12001500051001906</t>
+  </si>
+  <si>
+    <t>.12002500004000143</t>
+  </si>
+  <si>
+    <t>12001500051000880</t>
+  </si>
+  <si>
+    <t>12001500051002758</t>
+  </si>
+  <si>
+    <t>.12002500004000149</t>
+  </si>
+  <si>
+    <t>12001500051000945</t>
+  </si>
+  <si>
+    <t>12001500051001889</t>
+  </si>
+  <si>
+    <t>.12002500004000157</t>
+  </si>
+  <si>
+    <t>12001500051000954</t>
+  </si>
+  <si>
+    <t>.12001500051000196</t>
+  </si>
+  <si>
+    <t>.12001500051000262</t>
+  </si>
+  <si>
+    <t>12001500051001066</t>
+  </si>
+  <si>
+    <t>.12001500051000263</t>
+  </si>
+  <si>
+    <t>12001500051001214</t>
+  </si>
+  <si>
+    <t>12001500051001716</t>
+  </si>
+  <si>
+    <t>.12001500051000378</t>
+  </si>
+  <si>
+    <t>12001500051001295</t>
+  </si>
+  <si>
+    <t>12001500051003287</t>
+  </si>
+  <si>
+    <t>.12001500051000397</t>
+  </si>
+  <si>
+    <t>12001500051003447</t>
+  </si>
+  <si>
+    <t>.12001500051000419</t>
+  </si>
+  <si>
+    <t>12001500051001338</t>
+  </si>
+  <si>
+    <t>12001500051001885</t>
+  </si>
+  <si>
+    <t>.12001500051000421</t>
+  </si>
+  <si>
+    <t>12001500051001346</t>
+  </si>
+  <si>
+    <t>12001500051002913</t>
+  </si>
+  <si>
+    <t>.12001500051000455</t>
+  </si>
+  <si>
+    <t>12001500051001483</t>
+  </si>
+  <si>
+    <t>12001500051002607</t>
+  </si>
+  <si>
+    <t>.12001500051000465</t>
+  </si>
+  <si>
+    <t>12108500004000002</t>
+  </si>
+  <si>
+    <t>.12001500051000474</t>
+  </si>
+  <si>
     <t>12001500051001535</t>
   </si>
   <si>
-    <t>.11901500051002336</t>
-  </si>
-  <si>
-    <t>12001500051000262</t>
+    <t>12001500051002029</t>
+  </si>
+  <si>
+    <t>.12001500051000475</t>
+  </si>
+  <si>
+    <t>12101500051000131</t>
+  </si>
+  <si>
+    <t>.12001500051000485</t>
+  </si>
+  <si>
+    <t>.12001500051000486</t>
+  </si>
+  <si>
+    <t>12101500051000106</t>
+  </si>
+  <si>
+    <t>.12001500051000550</t>
+  </si>
+  <si>
+    <t>12001500051001822</t>
+  </si>
+  <si>
+    <t>12001500051002590</t>
+  </si>
+  <si>
+    <t>.12001500051000576</t>
+  </si>
+  <si>
+    <t>12001500051001838</t>
+  </si>
+  <si>
+    <t>.12001500051000625</t>
+  </si>
+  <si>
+    <t>12001500051002964</t>
+  </si>
+  <si>
+    <t>.12001500051000644</t>
+  </si>
+  <si>
+    <t>12108500004000004</t>
+  </si>
+  <si>
+    <t>.12001500051000646</t>
+  </si>
+  <si>
+    <t>12001500051002620</t>
+  </si>
+  <si>
+    <t>.12001500051000710</t>
+  </si>
+  <si>
+    <t>12001500051001916</t>
+  </si>
+  <si>
+    <t>.12001500051000713</t>
+  </si>
+  <si>
+    <t>12001500051001985</t>
+  </si>
+  <si>
+    <t>.12001500051000743</t>
   </si>
   <si>
     <t>12001500051002024</t>
   </si>
   <si>
-    <t>.11901500051002868</t>
-  </si>
-  <si>
-    <t>12001500051000455</t>
-  </si>
-  <si>
-    <t>12001500051000798</t>
-  </si>
-  <si>
-    <t>.11901500051003333</t>
-  </si>
-  <si>
-    <t>12001500051000465</t>
+    <t>.12001500051000781</t>
+  </si>
+  <si>
+    <t>.12001500051000782</t>
+  </si>
+  <si>
+    <t>12001500051002103</t>
+  </si>
+  <si>
+    <t>12101500051000209</t>
+  </si>
+  <si>
+    <t>.12001500051000798</t>
+  </si>
+  <si>
+    <t>12001500051002250</t>
+  </si>
+  <si>
+    <t>.12001500051000801</t>
+  </si>
+  <si>
+    <t>.12001500051000809</t>
   </si>
   <si>
     <t>12108500004000003</t>
   </si>
   <si>
-    <t>.12002500004000050</t>
-  </si>
-  <si>
-    <t>12001500051000485</t>
+    <t>.12001500051000880</t>
+  </si>
+  <si>
+    <t>12001500051002605</t>
+  </si>
+  <si>
+    <t>.12001500051000945</t>
+  </si>
+  <si>
+    <t>.12001500051001066</t>
+  </si>
+  <si>
+    <t>12001500051002370</t>
+  </si>
+  <si>
+    <t>12001500051002582</t>
+  </si>
+  <si>
+    <t>.12001500051001085</t>
+  </si>
+  <si>
+    <t>12001500051002441</t>
+  </si>
+  <si>
+    <t>12001500051003330</t>
+  </si>
+  <si>
+    <t>.12001500051001124</t>
+  </si>
+  <si>
+    <t>12001500051002508</t>
+  </si>
+  <si>
+    <t>.12001500051001140</t>
+  </si>
+  <si>
+    <t>12001500051002523</t>
+  </si>
+  <si>
+    <t>12001500051002569</t>
+  </si>
+  <si>
+    <t>.12001500051001153</t>
+  </si>
+  <si>
+    <t>12001500051002552</t>
+  </si>
+  <si>
+    <t>.12001500051001163</t>
+  </si>
+  <si>
+    <t>.12001500051001164</t>
+  </si>
+  <si>
+    <t>.12001500051001166</t>
+  </si>
+  <si>
+    <t>.12001500051001214</t>
+  </si>
+  <si>
+    <t>.12001500051001259</t>
+  </si>
+  <si>
+    <t>12001500051000093</t>
+  </si>
+  <si>
+    <t>.12001500051001295</t>
+  </si>
+  <si>
+    <t>12001500051002922</t>
+  </si>
+  <si>
+    <t>.12001500051001333</t>
+  </si>
+  <si>
+    <t>12001500051002634</t>
+  </si>
+  <si>
+    <t>.12001500051001335</t>
+  </si>
+  <si>
+    <t>12001500051003047</t>
+  </si>
+  <si>
+    <t>.12001500051001338</t>
+  </si>
+  <si>
+    <t>12001500051002757</t>
+  </si>
+  <si>
+    <t>12001500051003415</t>
+  </si>
+  <si>
+    <t>.12001500051001341</t>
+  </si>
+  <si>
+    <t>.12001500051001346</t>
   </si>
   <si>
     <t>12001500051002832</t>
   </si>
   <si>
-    <t>.12002500004000057</t>
-  </si>
-  <si>
-    <t>12001500051000576</t>
-  </si>
-  <si>
-    <t>12001500051000809</t>
-  </si>
-  <si>
-    <t>12001500051000625</t>
-  </si>
-  <si>
-    <t>12001500051002523</t>
-  </si>
-  <si>
-    <t>.12002500004000061</t>
-  </si>
-  <si>
-    <t>12001500051000644</t>
-  </si>
-  <si>
-    <t>12001500051002029</t>
-  </si>
-  <si>
-    <t>.12002500004000073</t>
-  </si>
-  <si>
-    <t>12001500051000646</t>
-  </si>
-  <si>
-    <t>12001500051001483</t>
-  </si>
-  <si>
-    <t>.12002500004000074</t>
-  </si>
-  <si>
-    <t>12001500051000710</t>
-  </si>
-  <si>
-    <t>.12002500004000104</t>
-  </si>
-  <si>
-    <t>12001500051000713</t>
-  </si>
-  <si>
-    <t>12001500051002757</t>
-  </si>
-  <si>
-    <t>.12002500004000122</t>
-  </si>
-  <si>
-    <t>12001500051000781</t>
-  </si>
-  <si>
-    <t>41901500051002191</t>
-  </si>
-  <si>
-    <t>.12002500004000141</t>
-  </si>
-  <si>
-    <t>12001500051002913</t>
-  </si>
-  <si>
-    <t>12001500051001838</t>
-  </si>
-  <si>
-    <t>.12002500004000143</t>
-  </si>
-  <si>
-    <t>12001500051000880</t>
-  </si>
-  <si>
-    <t>12001500051001295</t>
-  </si>
-  <si>
-    <t>.12002500004000149</t>
-  </si>
-  <si>
-    <t>12001500051000945</t>
-  </si>
-  <si>
-    <t>12001500051001889</t>
-  </si>
-  <si>
-    <t>.12002500004000157</t>
-  </si>
-  <si>
-    <t>12001500051000954</t>
-  </si>
-  <si>
-    <t>12001500051003047</t>
-  </si>
-  <si>
-    <t>.12001500051000196</t>
-  </si>
-  <si>
-    <t>12001500051001024</t>
-  </si>
-  <si>
-    <t>.12001500051000262</t>
-  </si>
-  <si>
-    <t>12001500051001066</t>
-  </si>
-  <si>
-    <t>12001500051003447</t>
-  </si>
-  <si>
-    <t>.12001500051000263</t>
-  </si>
-  <si>
-    <t>12001500051001214</t>
-  </si>
-  <si>
-    <t>12001500051003132</t>
-  </si>
-  <si>
-    <t>.12001500051000378</t>
-  </si>
-  <si>
-    <t>12001500051001812</t>
-  </si>
-  <si>
-    <t>.12001500051000397</t>
-  </si>
-  <si>
-    <t>12001500051001335</t>
-  </si>
-  <si>
-    <t>12001500051002590</t>
-  </si>
-  <si>
-    <t>.12001500051000419</t>
-  </si>
-  <si>
-    <t>12001500051001338</t>
-  </si>
-  <si>
-    <t>12001500051003287</t>
-  </si>
-  <si>
-    <t>.12001500051000421</t>
-  </si>
-  <si>
-    <t>12001500051001346</t>
-  </si>
-  <si>
-    <t>.12001500051000455</t>
+    <t>12002500004000111</t>
+  </si>
+  <si>
+    <t>.12001500051001360</t>
   </si>
   <si>
     <t>12001500051002872</t>
   </si>
   <si>
-    <t>.12001500051000465</t>
-  </si>
-  <si>
-    <t>12001500051001492</t>
-  </si>
-  <si>
-    <t>.12001500051000474</t>
-  </si>
-  <si>
-    <t>12001500051002607</t>
-  </si>
-  <si>
-    <t>.12001500051000475</t>
-  </si>
-  <si>
-    <t>12001500051001705</t>
-  </si>
-  <si>
-    <t>12001500051003027</t>
-  </si>
-  <si>
-    <t>.12001500051000485</t>
-  </si>
-  <si>
-    <t>12001500051001716</t>
-  </si>
-  <si>
-    <t>.12001500051000486</t>
-  </si>
-  <si>
-    <t>12001500051000093</t>
-  </si>
-  <si>
-    <t>.12001500051000550</t>
-  </si>
-  <si>
-    <t>12001500051001822</t>
-  </si>
-  <si>
-    <t>12001500051003415</t>
-  </si>
-  <si>
-    <t>.12001500051000576</t>
-  </si>
-  <si>
-    <t>12101500051000209</t>
-  </si>
-  <si>
-    <t>.12001500051000625</t>
-  </si>
-  <si>
-    <t>12001500051001885</t>
-  </si>
-  <si>
-    <t>.12001500051000644</t>
-  </si>
-  <si>
-    <t>12001500051001985</t>
-  </si>
-  <si>
-    <t>.12001500051000646</t>
-  </si>
-  <si>
-    <t>12001500051001906</t>
-  </si>
-  <si>
-    <t>.12001500051000710</t>
-  </si>
-  <si>
-    <t>12001500051001916</t>
-  </si>
-  <si>
-    <t>.12001500051000713</t>
-  </si>
-  <si>
-    <t>12002500004000111</t>
-  </si>
-  <si>
-    <t>.12001500051000743</t>
-  </si>
-  <si>
-    <t>12101500051000131</t>
-  </si>
-  <si>
-    <t>.12001500051000781</t>
-  </si>
-  <si>
-    <t>12001500051003364</t>
-  </si>
-  <si>
-    <t>.12001500051000782</t>
-  </si>
-  <si>
-    <t>12001500051002103</t>
-  </si>
-  <si>
-    <t>.12001500051000798</t>
-  </si>
-  <si>
-    <t>12001500051002250</t>
+    <t>.12001500051001406</t>
+  </si>
+  <si>
+    <t>.12001500051001461</t>
+  </si>
+  <si>
+    <t>12001500051002917</t>
+  </si>
+  <si>
+    <t>12101500051000084</t>
+  </si>
+  <si>
+    <t>.12001500051001483</t>
+  </si>
+  <si>
+    <t>12101500051003150</t>
+  </si>
+  <si>
+    <t>.12001500051001492</t>
+  </si>
+  <si>
+    <t>.12001500051001515</t>
+  </si>
+  <si>
+    <t>.12001500051001535</t>
+  </si>
+  <si>
+    <t>12001500051003106</t>
   </si>
   <si>
     <t>1200150051003115</t>
   </si>
   <si>
-    <t>.12001500051000801</t>
-  </si>
-  <si>
-    <t>.12001500051000809</t>
-  </si>
-  <si>
-    <t>.12001500051000880</t>
-  </si>
-  <si>
-    <t>12001500051002339</t>
-  </si>
-  <si>
-    <t>12001500051002634</t>
-  </si>
-  <si>
-    <t>.12001500051000945</t>
-  </si>
-  <si>
-    <t>.12001500051001066</t>
-  </si>
-  <si>
-    <t>12001500051002370</t>
-  </si>
-  <si>
-    <t>12001500051002552</t>
-  </si>
-  <si>
-    <t>.12001500051001085</t>
-  </si>
-  <si>
-    <t>12001500051002441</t>
-  </si>
-  <si>
-    <t>12001500051002922</t>
-  </si>
-  <si>
-    <t>.12001500051001124</t>
-  </si>
-  <si>
-    <t>12001500051002508</t>
-  </si>
-  <si>
-    <t>12001500051002964</t>
-  </si>
-  <si>
-    <t>.12001500051001140</t>
-  </si>
-  <si>
-    <t>.12001500051001153</t>
-  </si>
-  <si>
-    <t>.12001500051001163</t>
-  </si>
-  <si>
-    <t>12001500051002569</t>
-  </si>
-  <si>
-    <t>.12001500051001164</t>
-  </si>
-  <si>
-    <t>12001500051002582</t>
-  </si>
-  <si>
-    <t>12001500051002605</t>
-  </si>
-  <si>
-    <t>.12001500051001166</t>
-  </si>
-  <si>
-    <t>.12001500051001214</t>
-  </si>
-  <si>
-    <t>12001500051003289</t>
-  </si>
-  <si>
-    <t>.12001500051001259</t>
+    <t>.12001500051001592</t>
+  </si>
+  <si>
+    <t>.12001500051001651</t>
+  </si>
+  <si>
+    <t>.12001500051001702</t>
+  </si>
+  <si>
+    <t>.12001500051001706</t>
+  </si>
+  <si>
+    <t>12101500051000082</t>
+  </si>
+  <si>
+    <t>.12001500051001716</t>
+  </si>
+  <si>
+    <t>.12001500051001758</t>
+  </si>
+  <si>
+    <t>12108500004000001</t>
+  </si>
+  <si>
+    <t>.12001500051001787</t>
+  </si>
+  <si>
+    <t>.12001500051001812</t>
+  </si>
+  <si>
+    <t>12108500004000005</t>
+  </si>
+  <si>
+    <t>.12001500051001822</t>
+  </si>
+  <si>
+    <t>12101500051000019</t>
+  </si>
+  <si>
+    <t>.12001500051001838</t>
+  </si>
+  <si>
+    <t>.12001500051001885</t>
+  </si>
+  <si>
+    <t>.12001500051001889</t>
+  </si>
+  <si>
+    <t>.12001500051001890</t>
   </si>
   <si>
     <t>12101500051000372</t>
-  </si>
-  <si>
-    <t>.12001500051001295</t>
-  </si>
-  <si>
-    <t>12001500051002620</t>
-  </si>
-  <si>
-    <t>.12001500051001333</t>
-  </si>
-  <si>
-    <t>12108500004000002</t>
-  </si>
-  <si>
-    <t>.12001500051001335</t>
-  </si>
-  <si>
-    <t>12001500051002691</t>
-  </si>
-  <si>
-    <t>12101500051000082</t>
-  </si>
-  <si>
-    <t>.12001500051001338</t>
-  </si>
-  <si>
-    <t>.12001500051001341</t>
-  </si>
-  <si>
-    <t>12001500051002758</t>
-  </si>
-  <si>
-    <t>12001500051003330</t>
-  </si>
-  <si>
-    <t>.12001500051001346</t>
-  </si>
-  <si>
-    <t>.12001500051001360</t>
-  </si>
-  <si>
-    <t>.12001500051001406</t>
-  </si>
-  <si>
-    <t>.12001500051001461</t>
-  </si>
-  <si>
-    <t>12001500051002917</t>
-  </si>
-  <si>
-    <t>.12001500051001483</t>
-  </si>
-  <si>
-    <t>12108500004000001</t>
-  </si>
-  <si>
-    <t>.12001500051001492</t>
-  </si>
-  <si>
-    <t>12101500051000106</t>
-  </si>
-  <si>
-    <t>.12001500051001515</t>
-  </si>
-  <si>
-    <t>.12001500051001535</t>
-  </si>
-  <si>
-    <t>12001500051003106</t>
-  </si>
-  <si>
-    <t>12108500004000005</t>
-  </si>
-  <si>
-    <t>12108500004000004</t>
-  </si>
-  <si>
-    <t>.12001500051001592</t>
-  </si>
-  <si>
-    <t>.12001500051001651</t>
-  </si>
-  <si>
-    <t>12101500051003150</t>
-  </si>
-  <si>
-    <t>.12001500051001702</t>
-  </si>
-  <si>
-    <t>.12001500051001706</t>
-  </si>
-  <si>
-    <t>.12001500051001716</t>
-  </si>
-  <si>
-    <t>.12001500051001758</t>
-  </si>
-  <si>
-    <t>.12001500051001787</t>
-  </si>
-  <si>
-    <t>.12001500051001812</t>
-  </si>
-  <si>
-    <t>.12001500051001822</t>
-  </si>
-  <si>
-    <t>12101500051000019</t>
-  </si>
-  <si>
-    <t>12101500051000084</t>
-  </si>
-  <si>
-    <t>.12001500051001838</t>
-  </si>
-  <si>
-    <t>12101500051000079</t>
-  </si>
-  <si>
-    <t>.12001500051001885</t>
-  </si>
-  <si>
-    <t>.12001500051001889</t>
-  </si>
-  <si>
-    <t>.12001500051001890</t>
   </si>
   <si>
     <t>.12001500051001906</t>
@@ -1252,8 +1252,8 @@
     <col min="6" max="6" width="32.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="36.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="35.7109375" style="1" customWidth="1"/>
-    <col min="9" max="17" width="9.140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="19" width="9.140625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1424,10 +1424,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -1438,10 +1438,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -1452,10 +1452,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -1480,10 +1480,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -1508,10 +1508,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -1522,10 +1522,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -1536,10 +1536,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -1567,7 +1567,7 @@
         <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -1578,10 +1578,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -1620,10 +1620,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -1634,10 +1634,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -1662,10 +1662,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -1676,10 +1676,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -1690,10 +1690,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -1704,10 +1704,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -1718,10 +1718,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -1746,10 +1746,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -1760,10 +1760,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -1774,10 +1774,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -1788,10 +1788,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -1802,10 +1802,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
@@ -1816,10 +1816,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
@@ -1844,10 +1844,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C42"/>
       <c r="D42"/>
@@ -1861,7 +1861,7 @@
         <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C43"/>
       <c r="D43"/>
@@ -1875,7 +1875,7 @@
         <v>110</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
@@ -1886,10 +1886,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
@@ -1903,7 +1903,7 @@
         <v>114</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="C46"/>
       <c r="D46"/>
@@ -1956,10 +1956,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" t="s">
         <v>124</v>
-      </c>
-      <c r="B50" t="s">
-        <v>27</v>
       </c>
       <c r="C50"/>
       <c r="D50"/>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
@@ -1984,10 +1984,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B52" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C52"/>
       <c r="D52"/>
@@ -1998,10 +1998,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C53"/>
       <c r="D53"/>
@@ -2012,10 +2012,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C54"/>
       <c r="D54"/>
@@ -2026,10 +2026,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C55"/>
       <c r="D55"/>
@@ -2040,10 +2040,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56"/>
       <c r="D56"/>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B57" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="C57"/>
       <c r="D57"/>
@@ -2068,10 +2068,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="C58"/>
       <c r="D58"/>
@@ -2082,10 +2082,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B59" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="C59"/>
       <c r="D59"/>
@@ -2096,10 +2096,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="C60"/>
       <c r="D60"/>
@@ -2110,10 +2110,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="C61"/>
       <c r="D61"/>
@@ -2124,10 +2124,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="C62"/>
       <c r="D62"/>
@@ -2138,10 +2138,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>147</v>
+      </c>
+      <c r="B63" t="s">
         <v>148</v>
-      </c>
-      <c r="B63" t="s">
-        <v>73</v>
       </c>
       <c r="C63"/>
       <c r="D63"/>
@@ -2155,7 +2155,7 @@
         <v>149</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C64"/>
       <c r="D64"/>
@@ -2180,10 +2180,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B66" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C66"/>
       <c r="D66"/>
@@ -2194,10 +2194,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B67" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="C67"/>
       <c r="D67"/>
@@ -2211,7 +2211,7 @@
         <v>156</v>
       </c>
       <c r="B68" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="C68"/>
       <c r="D68"/>
@@ -2239,7 +2239,7 @@
         <v>157</v>
       </c>
       <c r="B70" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="C70"/>
       <c r="D70"/>
@@ -2250,10 +2250,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B71" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="C71"/>
       <c r="D71"/>
@@ -2264,10 +2264,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B72" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C72"/>
       <c r="D72"/>
@@ -2278,10 +2278,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B73" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C73"/>
       <c r="D73"/>
@@ -2292,10 +2292,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B74" t="s">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="C74"/>
       <c r="D74"/>
@@ -2306,10 +2306,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B75" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C75"/>
       <c r="D75"/>
@@ -2320,10 +2320,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B76" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="C76"/>
       <c r="D76"/>
@@ -2337,7 +2337,7 @@
         <v>168</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="C77"/>
       <c r="D77"/>
@@ -2351,7 +2351,7 @@
         <v>169</v>
       </c>
       <c r="B78" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="C78"/>
       <c r="D78"/>
@@ -2362,10 +2362,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B79" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C79"/>
       <c r="D79"/>
@@ -2379,7 +2379,7 @@
         <v>173</v>
       </c>
       <c r="B80" t="s">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="C80"/>
       <c r="D80"/>
@@ -2390,10 +2390,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B81" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="C81"/>
       <c r="D81"/>
@@ -2404,10 +2404,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B82" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="C82"/>
       <c r="D82"/>
@@ -2418,10 +2418,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="C83"/>
       <c r="D83"/>
@@ -2435,7 +2435,7 @@
         <v>178</v>
       </c>
       <c r="B84" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="C84"/>
       <c r="D84"/>
@@ -2449,7 +2449,7 @@
         <v>179</v>
       </c>
       <c r="B85" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C85"/>
       <c r="D85"/>
@@ -2463,7 +2463,7 @@
         <v>180</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C86"/>
       <c r="D86"/>
@@ -2477,7 +2477,7 @@
         <v>181</v>
       </c>
       <c r="B87" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="C87"/>
       <c r="D87"/>
@@ -2491,7 +2491,7 @@
         <v>182</v>
       </c>
       <c r="B88" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="C88"/>
       <c r="D88"/>
@@ -2505,7 +2505,7 @@
         <v>183</v>
       </c>
       <c r="B89" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="C89"/>
       <c r="D89"/>
@@ -2519,7 +2519,7 @@
         <v>184</v>
       </c>
       <c r="B90" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C90"/>
       <c r="D90"/>
@@ -2533,7 +2533,7 @@
         <v>185</v>
       </c>
       <c r="B91" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="C91"/>
       <c r="D91"/>
@@ -2547,7 +2547,7 @@
         <v>186</v>
       </c>
       <c r="B92" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="C92"/>
       <c r="D92"/>
@@ -2561,7 +2561,7 @@
         <v>186</v>
       </c>
       <c r="B93" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C93"/>
       <c r="D93"/>
@@ -2575,7 +2575,7 @@
         <v>187</v>
       </c>
       <c r="B94" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="C94"/>
       <c r="D94"/>
@@ -2589,7 +2589,7 @@
         <v>188</v>
       </c>
       <c r="B95" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="C95"/>
       <c r="D95"/>
@@ -2603,7 +2603,7 @@
         <v>189</v>
       </c>
       <c r="B96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C96"/>
       <c r="D96"/>
@@ -2617,7 +2617,7 @@
         <v>190</v>
       </c>
       <c r="B97" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C97"/>
       <c r="D97"/>

--- a/compare_ud.xlsx
+++ b/compare_ud.xlsx
@@ -38,10 +38,6 @@
   </si>
   <si>
     <t>Объединение списков
-с дублями</t>
-  </si>
-  <si>
-    <t>Объединение списков
 без дублей</t>
   </si>
   <si>
@@ -60,516 +56,516 @@
     <t>12001500051001335</t>
   </si>
   <si>
+    <t>12001500051003287</t>
+  </si>
+  <si>
     <t>.11901500051002336</t>
   </si>
   <si>
     <t>12001500051000262</t>
   </si>
   <si>
+    <t>12001500051003132</t>
+  </si>
+  <si>
+    <t>12001500051000798</t>
+  </si>
+  <si>
+    <t>.11901500051002868</t>
+  </si>
+  <si>
+    <t>12001500051000455</t>
+  </si>
+  <si>
+    <t>12001500051001885</t>
+  </si>
+  <si>
+    <t>.11901500051003333</t>
+  </si>
+  <si>
+    <t>12001500051000465</t>
+  </si>
+  <si>
+    <t>12001500051002508</t>
+  </si>
+  <si>
+    <t>12001500051001889</t>
+  </si>
+  <si>
+    <t>.12002500004000050</t>
+  </si>
+  <si>
+    <t>12001500051000485</t>
+  </si>
+  <si>
+    <t>12108500004000004</t>
+  </si>
+  <si>
+    <t>12101500051000082</t>
+  </si>
+  <si>
+    <t>.12002500004000057</t>
+  </si>
+  <si>
+    <t>12001500051000576</t>
+  </si>
+  <si>
+    <t>12001500051001838</t>
+  </si>
+  <si>
+    <t>12001500051000625</t>
+  </si>
+  <si>
+    <t>12101500051000019</t>
+  </si>
+  <si>
+    <t>.12002500004000061</t>
+  </si>
+  <si>
+    <t>12001500051000644</t>
+  </si>
+  <si>
+    <t>12001500051002872</t>
+  </si>
+  <si>
+    <t>.12002500004000073</t>
+  </si>
+  <si>
+    <t>12001500051000646</t>
+  </si>
+  <si>
+    <t>12108500004000003</t>
+  </si>
+  <si>
+    <t>12001500051000713</t>
+  </si>
+  <si>
+    <t>.12002500004000074</t>
+  </si>
+  <si>
+    <t>12001500051000710</t>
+  </si>
+  <si>
+    <t>12108500004000005</t>
+  </si>
+  <si>
+    <t>12101500051000131</t>
+  </si>
+  <si>
+    <t>.12002500004000104</t>
+  </si>
+  <si>
+    <t>12001500051002590</t>
+  </si>
+  <si>
+    <t>12001500051003289</t>
+  </si>
+  <si>
+    <t>.12002500004000122</t>
+  </si>
+  <si>
+    <t>12001500051000781</t>
+  </si>
+  <si>
+    <t>12001500051001295</t>
+  </si>
+  <si>
+    <t>12001500051000809</t>
+  </si>
+  <si>
+    <t>.12002500004000141</t>
+  </si>
+  <si>
+    <t>12001500051002523</t>
+  </si>
+  <si>
+    <t>12001500051001812</t>
+  </si>
+  <si>
+    <t>.12002500004000143</t>
+  </si>
+  <si>
+    <t>12001500051000880</t>
+  </si>
+  <si>
+    <t>12001500051001338</t>
+  </si>
+  <si>
+    <t>12001500051002620</t>
+  </si>
+  <si>
+    <t>.12002500004000149</t>
+  </si>
+  <si>
+    <t>12001500051000945</t>
+  </si>
+  <si>
+    <t>12001500051001492</t>
+  </si>
+  <si>
+    <t>12001500051002634</t>
+  </si>
+  <si>
+    <t>.12002500004000157</t>
+  </si>
+  <si>
+    <t>12001500051000954</t>
+  </si>
+  <si>
+    <t>12002500004000111</t>
+  </si>
+  <si>
     <t>12101500051000079</t>
   </si>
   <si>
-    <t>.11901500051002868</t>
-  </si>
-  <si>
-    <t>12001500051000455</t>
-  </si>
-  <si>
-    <t>12001500051003289</t>
-  </si>
-  <si>
-    <t>.11901500051003333</t>
-  </si>
-  <si>
-    <t>12001500051000465</t>
-  </si>
-  <si>
-    <t>12001500051003132</t>
-  </si>
-  <si>
-    <t>.12002500004000050</t>
-  </si>
-  <si>
-    <t>12001500051000485</t>
-  </si>
-  <si>
-    <t>12001500051001492</t>
-  </si>
-  <si>
-    <t>.12002500004000057</t>
-  </si>
-  <si>
-    <t>12001500051000576</t>
+    <t>.12001500051000196</t>
+  </si>
+  <si>
+    <t>12001500051001024</t>
+  </si>
+  <si>
+    <t>12001500051001483</t>
+  </si>
+  <si>
+    <t>12001500051002569</t>
+  </si>
+  <si>
+    <t>.12001500051000262</t>
+  </si>
+  <si>
+    <t>12001500051001066</t>
+  </si>
+  <si>
+    <t>12001500051002103</t>
+  </si>
+  <si>
+    <t>.12001500051000263</t>
+  </si>
+  <si>
+    <t>12001500051001214</t>
+  </si>
+  <si>
+    <t>1200150051003115</t>
+  </si>
+  <si>
+    <t>12001500051002917</t>
+  </si>
+  <si>
+    <t>.12001500051000378</t>
+  </si>
+  <si>
+    <t>.12001500051000397</t>
+  </si>
+  <si>
+    <t>12001500051002441</t>
   </si>
   <si>
     <t>12001500051002691</t>
   </si>
   <si>
-    <t>12001500051000625</t>
-  </si>
-  <si>
-    <t>12001500051001812</t>
-  </si>
-  <si>
-    <t>.12002500004000061</t>
-  </si>
-  <si>
-    <t>12001500051000644</t>
-  </si>
-  <si>
-    <t>12001500051001024</t>
-  </si>
-  <si>
-    <t>.12002500004000073</t>
-  </si>
-  <si>
-    <t>12001500051000646</t>
+    <t>.12001500051000419</t>
+  </si>
+  <si>
+    <t>12001500051001916</t>
+  </si>
+  <si>
+    <t>.12001500051000421</t>
+  </si>
+  <si>
+    <t>12001500051001346</t>
+  </si>
+  <si>
+    <t>12001500051002758</t>
+  </si>
+  <si>
+    <t>12001500051003330</t>
+  </si>
+  <si>
+    <t>.12001500051000455</t>
+  </si>
+  <si>
+    <t>.12001500051000465</t>
+  </si>
+  <si>
+    <t>12108500004000001</t>
+  </si>
+  <si>
+    <t>.12001500051000474</t>
+  </si>
+  <si>
+    <t>12001500051001535</t>
+  </si>
+  <si>
+    <t>12001500051002913</t>
+  </si>
+  <si>
+    <t>.12001500051000475</t>
+  </si>
+  <si>
+    <t>12001500051001705</t>
+  </si>
+  <si>
+    <t>12001500051002370</t>
+  </si>
+  <si>
+    <t>.12001500051000485</t>
+  </si>
+  <si>
+    <t>12001500051001716</t>
+  </si>
+  <si>
+    <t>.12001500051000486</t>
+  </si>
+  <si>
+    <t>12001500051003106</t>
+  </si>
+  <si>
+    <t>.12001500051000550</t>
+  </si>
+  <si>
+    <t>12001500051001822</t>
+  </si>
+  <si>
+    <t>12101500051000084</t>
+  </si>
+  <si>
+    <t>.12001500051000576</t>
+  </si>
+  <si>
+    <t>12108500004000002</t>
+  </si>
+  <si>
+    <t>12001500051002582</t>
+  </si>
+  <si>
+    <t>.12001500051000625</t>
+  </si>
+  <si>
+    <t>12001500051002832</t>
+  </si>
+  <si>
+    <t>.12001500051000644</t>
+  </si>
+  <si>
+    <t>.12001500051000646</t>
+  </si>
+  <si>
+    <t>12001500051001906</t>
+  </si>
+  <si>
+    <t>.12001500051000710</t>
+  </si>
+  <si>
+    <t>.12001500051000713</t>
+  </si>
+  <si>
+    <t>12001500051001985</t>
+  </si>
+  <si>
+    <t>12001500051002922</t>
+  </si>
+  <si>
+    <t>12001500051003447</t>
+  </si>
+  <si>
+    <t>.12001500051000743</t>
+  </si>
+  <si>
+    <t>12001500051002024</t>
+  </si>
+  <si>
+    <t>12001500051003364</t>
+  </si>
+  <si>
+    <t>.12001500051000781</t>
+  </si>
+  <si>
+    <t>12001500051002029</t>
+  </si>
+  <si>
+    <t>12001500051002607</t>
+  </si>
+  <si>
+    <t>.12001500051000782</t>
   </si>
   <si>
     <t>12001500051003027</t>
   </si>
   <si>
-    <t>.12002500004000074</t>
-  </si>
-  <si>
-    <t>12001500051000710</t>
-  </si>
-  <si>
-    <t>12001500051003364</t>
-  </si>
-  <si>
-    <t>.12002500004000104</t>
-  </si>
-  <si>
-    <t>12001500051000713</t>
-  </si>
-  <si>
-    <t>12001500051001705</t>
-  </si>
-  <si>
-    <t>.12002500004000122</t>
-  </si>
-  <si>
-    <t>12001500051000781</t>
+    <t>.12001500051000798</t>
+  </si>
+  <si>
+    <t>12001500051002250</t>
+  </si>
+  <si>
+    <t>12101500051000106</t>
+  </si>
+  <si>
+    <t>.12001500051000801</t>
+  </si>
+  <si>
+    <t>.12001500051000809</t>
   </si>
   <si>
     <t>41901500051002191</t>
   </si>
   <si>
-    <t>.12002500004000141</t>
-  </si>
-  <si>
-    <t>12001500051000798</t>
+    <t>12001500051003415</t>
+  </si>
+  <si>
+    <t>.12001500051000880</t>
   </si>
   <si>
     <t>12001500051002339</t>
   </si>
   <si>
-    <t>12001500051000809</t>
-  </si>
-  <si>
-    <t>12001500051001906</t>
-  </si>
-  <si>
-    <t>.12002500004000143</t>
-  </si>
-  <si>
-    <t>12001500051000880</t>
-  </si>
-  <si>
-    <t>12001500051002758</t>
-  </si>
-  <si>
-    <t>.12002500004000149</t>
-  </si>
-  <si>
-    <t>12001500051000945</t>
-  </si>
-  <si>
-    <t>12001500051001889</t>
-  </si>
-  <si>
-    <t>.12002500004000157</t>
-  </si>
-  <si>
-    <t>12001500051000954</t>
-  </si>
-  <si>
-    <t>.12001500051000196</t>
-  </si>
-  <si>
-    <t>.12001500051000262</t>
-  </si>
-  <si>
-    <t>12001500051001066</t>
-  </si>
-  <si>
-    <t>.12001500051000263</t>
-  </si>
-  <si>
-    <t>12001500051001214</t>
-  </si>
-  <si>
-    <t>12001500051001716</t>
-  </si>
-  <si>
-    <t>.12001500051000378</t>
-  </si>
-  <si>
-    <t>12001500051001295</t>
-  </si>
-  <si>
-    <t>12001500051003287</t>
-  </si>
-  <si>
-    <t>.12001500051000397</t>
-  </si>
-  <si>
-    <t>12001500051003447</t>
-  </si>
-  <si>
-    <t>.12001500051000419</t>
-  </si>
-  <si>
-    <t>12001500051001338</t>
-  </si>
-  <si>
-    <t>12001500051001885</t>
-  </si>
-  <si>
-    <t>.12001500051000421</t>
-  </si>
-  <si>
-    <t>12001500051001346</t>
-  </si>
-  <si>
-    <t>12001500051002913</t>
-  </si>
-  <si>
-    <t>.12001500051000455</t>
-  </si>
-  <si>
-    <t>12001500051001483</t>
-  </si>
-  <si>
-    <t>12001500051002607</t>
-  </si>
-  <si>
-    <t>.12001500051000465</t>
-  </si>
-  <si>
-    <t>12108500004000002</t>
-  </si>
-  <si>
-    <t>.12001500051000474</t>
-  </si>
-  <si>
-    <t>12001500051001535</t>
-  </si>
-  <si>
-    <t>12001500051002029</t>
-  </si>
-  <si>
-    <t>.12001500051000475</t>
-  </si>
-  <si>
-    <t>12101500051000131</t>
-  </si>
-  <si>
-    <t>.12001500051000485</t>
-  </si>
-  <si>
-    <t>.12001500051000486</t>
-  </si>
-  <si>
-    <t>12101500051000106</t>
-  </si>
-  <si>
-    <t>.12001500051000550</t>
-  </si>
-  <si>
-    <t>12001500051001822</t>
-  </si>
-  <si>
-    <t>12001500051002590</t>
-  </si>
-  <si>
-    <t>.12001500051000576</t>
-  </si>
-  <si>
-    <t>12001500051001838</t>
-  </si>
-  <si>
-    <t>.12001500051000625</t>
+    <t>12001500051002605</t>
+  </si>
+  <si>
+    <t>.12001500051000945</t>
+  </si>
+  <si>
+    <t>12101500051000372</t>
+  </si>
+  <si>
+    <t>.12001500051001066</t>
+  </si>
+  <si>
+    <t>12001500051000093</t>
+  </si>
+  <si>
+    <t>.12001500051001085</t>
   </si>
   <si>
     <t>12001500051002964</t>
   </si>
   <si>
-    <t>.12001500051000644</t>
-  </si>
-  <si>
-    <t>12108500004000004</t>
-  </si>
-  <si>
-    <t>.12001500051000646</t>
-  </si>
-  <si>
-    <t>12001500051002620</t>
-  </si>
-  <si>
-    <t>.12001500051000710</t>
-  </si>
-  <si>
-    <t>12001500051001916</t>
-  </si>
-  <si>
-    <t>.12001500051000713</t>
-  </si>
-  <si>
-    <t>12001500051001985</t>
-  </si>
-  <si>
-    <t>.12001500051000743</t>
-  </si>
-  <si>
-    <t>12001500051002024</t>
-  </si>
-  <si>
-    <t>.12001500051000781</t>
-  </si>
-  <si>
-    <t>.12001500051000782</t>
-  </si>
-  <si>
-    <t>12001500051002103</t>
+    <t>.12001500051001124</t>
+  </si>
+  <si>
+    <t>.12001500051001140</t>
+  </si>
+  <si>
+    <t>.12001500051001153</t>
+  </si>
+  <si>
+    <t>12001500051002552</t>
+  </si>
+  <si>
+    <t>.12001500051001163</t>
+  </si>
+  <si>
+    <t>.12001500051001164</t>
+  </si>
+  <si>
+    <t>.12001500051001166</t>
+  </si>
+  <si>
+    <t>.12001500051001214</t>
+  </si>
+  <si>
+    <t>.12001500051001259</t>
+  </si>
+  <si>
+    <t>.12001500051001295</t>
+  </si>
+  <si>
+    <t>.12001500051001333</t>
+  </si>
+  <si>
+    <t>.12001500051001335</t>
+  </si>
+  <si>
+    <t>.12001500051001338</t>
+  </si>
+  <si>
+    <t>12001500051002757</t>
+  </si>
+  <si>
+    <t>.12001500051001341</t>
+  </si>
+  <si>
+    <t>12001500051003047</t>
+  </si>
+  <si>
+    <t>.12001500051001346</t>
+  </si>
+  <si>
+    <t>.12001500051001360</t>
+  </si>
+  <si>
+    <t>.12001500051001406</t>
+  </si>
+  <si>
+    <t>.12001500051001461</t>
+  </si>
+  <si>
+    <t>.12001500051001483</t>
+  </si>
+  <si>
+    <t>.12001500051001492</t>
+  </si>
+  <si>
+    <t>.12001500051001515</t>
+  </si>
+  <si>
+    <t>.12001500051001535</t>
+  </si>
+  <si>
+    <t>.12001500051001592</t>
+  </si>
+  <si>
+    <t>12101500051003150</t>
+  </si>
+  <si>
+    <t>.12001500051001651</t>
+  </si>
+  <si>
+    <t>.12001500051001702</t>
+  </si>
+  <si>
+    <t>.12001500051001706</t>
+  </si>
+  <si>
+    <t>.12001500051001716</t>
+  </si>
+  <si>
+    <t>.12001500051001758</t>
+  </si>
+  <si>
+    <t>.12001500051001787</t>
+  </si>
+  <si>
+    <t>.12001500051001812</t>
+  </si>
+  <si>
+    <t>.12001500051001822</t>
+  </si>
+  <si>
+    <t>.12001500051001838</t>
+  </si>
+  <si>
+    <t>.12001500051001885</t>
+  </si>
+  <si>
+    <t>.12001500051001889</t>
+  </si>
+  <si>
+    <t>.12001500051001890</t>
+  </si>
+  <si>
+    <t>.12001500051001906</t>
+  </si>
+  <si>
+    <t>.12001500051001916</t>
+  </si>
+  <si>
+    <t>.12001500051001947</t>
   </si>
   <si>
     <t>12101500051000209</t>
   </si>
   <si>
-    <t>.12001500051000798</t>
-  </si>
-  <si>
-    <t>12001500051002250</t>
-  </si>
-  <si>
-    <t>.12001500051000801</t>
-  </si>
-  <si>
-    <t>.12001500051000809</t>
-  </si>
-  <si>
-    <t>12108500004000003</t>
-  </si>
-  <si>
-    <t>.12001500051000880</t>
-  </si>
-  <si>
-    <t>12001500051002605</t>
-  </si>
-  <si>
-    <t>.12001500051000945</t>
-  </si>
-  <si>
-    <t>.12001500051001066</t>
-  </si>
-  <si>
-    <t>12001500051002370</t>
-  </si>
-  <si>
-    <t>12001500051002582</t>
-  </si>
-  <si>
-    <t>.12001500051001085</t>
-  </si>
-  <si>
-    <t>12001500051002441</t>
-  </si>
-  <si>
-    <t>12001500051003330</t>
-  </si>
-  <si>
-    <t>.12001500051001124</t>
-  </si>
-  <si>
-    <t>12001500051002508</t>
-  </si>
-  <si>
-    <t>.12001500051001140</t>
-  </si>
-  <si>
-    <t>12001500051002523</t>
-  </si>
-  <si>
-    <t>12001500051002569</t>
-  </si>
-  <si>
-    <t>.12001500051001153</t>
-  </si>
-  <si>
-    <t>12001500051002552</t>
-  </si>
-  <si>
-    <t>.12001500051001163</t>
-  </si>
-  <si>
-    <t>.12001500051001164</t>
-  </si>
-  <si>
-    <t>.12001500051001166</t>
-  </si>
-  <si>
-    <t>.12001500051001214</t>
-  </si>
-  <si>
-    <t>.12001500051001259</t>
-  </si>
-  <si>
-    <t>12001500051000093</t>
-  </si>
-  <si>
-    <t>.12001500051001295</t>
-  </si>
-  <si>
-    <t>12001500051002922</t>
-  </si>
-  <si>
-    <t>.12001500051001333</t>
-  </si>
-  <si>
-    <t>12001500051002634</t>
-  </si>
-  <si>
-    <t>.12001500051001335</t>
-  </si>
-  <si>
-    <t>12001500051003047</t>
-  </si>
-  <si>
-    <t>.12001500051001338</t>
-  </si>
-  <si>
-    <t>12001500051002757</t>
-  </si>
-  <si>
-    <t>12001500051003415</t>
-  </si>
-  <si>
-    <t>.12001500051001341</t>
-  </si>
-  <si>
-    <t>.12001500051001346</t>
-  </si>
-  <si>
-    <t>12001500051002832</t>
-  </si>
-  <si>
-    <t>12002500004000111</t>
-  </si>
-  <si>
-    <t>.12001500051001360</t>
-  </si>
-  <si>
-    <t>12001500051002872</t>
-  </si>
-  <si>
-    <t>.12001500051001406</t>
-  </si>
-  <si>
-    <t>.12001500051001461</t>
-  </si>
-  <si>
-    <t>12001500051002917</t>
-  </si>
-  <si>
-    <t>12101500051000084</t>
-  </si>
-  <si>
-    <t>.12001500051001483</t>
-  </si>
-  <si>
-    <t>12101500051003150</t>
-  </si>
-  <si>
-    <t>.12001500051001492</t>
-  </si>
-  <si>
-    <t>.12001500051001515</t>
-  </si>
-  <si>
-    <t>.12001500051001535</t>
-  </si>
-  <si>
-    <t>12001500051003106</t>
-  </si>
-  <si>
-    <t>1200150051003115</t>
-  </si>
-  <si>
-    <t>.12001500051001592</t>
-  </si>
-  <si>
-    <t>.12001500051001651</t>
-  </si>
-  <si>
-    <t>.12001500051001702</t>
-  </si>
-  <si>
-    <t>.12001500051001706</t>
-  </si>
-  <si>
-    <t>12101500051000082</t>
-  </si>
-  <si>
-    <t>.12001500051001716</t>
-  </si>
-  <si>
-    <t>.12001500051001758</t>
-  </si>
-  <si>
-    <t>12108500004000001</t>
-  </si>
-  <si>
-    <t>.12001500051001787</t>
-  </si>
-  <si>
-    <t>.12001500051001812</t>
-  </si>
-  <si>
-    <t>12108500004000005</t>
-  </si>
-  <si>
-    <t>.12001500051001822</t>
-  </si>
-  <si>
-    <t>12101500051000019</t>
-  </si>
-  <si>
-    <t>.12001500051001838</t>
-  </si>
-  <si>
-    <t>.12001500051001885</t>
-  </si>
-  <si>
-    <t>.12001500051001889</t>
-  </si>
-  <si>
-    <t>.12001500051001890</t>
-  </si>
-  <si>
-    <t>12101500051000372</t>
-  </si>
-  <si>
-    <t>.12001500051001906</t>
-  </si>
-  <si>
-    <t>.12001500051001916</t>
-  </si>
-  <si>
-    <t>.12001500051001947</t>
-  </si>
-  <si>
     <t>.12001500051001970</t>
   </si>
   <si>
@@ -835,6 +831,10 @@
   </si>
   <si>
     <t>.22101500001000020</t>
+  </si>
+  <si>
+    <t>Общие значения
+обоих списков</t>
   </si>
 </sst>
 </file>
@@ -1236,10 +1236,10 @@
   <dimension ref="A1:H176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C139" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A176" sqref="A2:H176"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,8 +1252,8 @@
     <col min="6" max="6" width="32.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="36.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="35.7109375" style="1" customWidth="1"/>
-    <col min="9" max="19" width="9.140625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="20" width="9.140625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1273,21 +1273,21 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -1312,10 +1312,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -1326,10 +1326,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -1340,10 +1340,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -1354,10 +1354,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -1368,10 +1368,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -1382,10 +1382,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -1396,10 +1396,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -1410,10 +1410,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -1424,10 +1424,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
         <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -1438,10 +1438,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -1452,10 +1452,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -1480,10 +1480,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -1508,10 +1508,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -1522,10 +1522,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -1536,10 +1536,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -1564,10 +1564,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -1578,10 +1578,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -1592,10 +1592,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -1606,10 +1606,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -1620,10 +1620,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -1634,10 +1634,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -1662,10 +1662,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -1676,10 +1676,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -1690,10 +1690,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -1704,10 +1704,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -1718,10 +1718,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -1746,10 +1746,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -1760,10 +1760,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -1774,10 +1774,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -1788,10 +1788,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -1802,10 +1802,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
@@ -1816,10 +1816,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
@@ -1830,10 +1830,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="C41"/>
       <c r="D41"/>
@@ -1844,10 +1844,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C42"/>
       <c r="D42"/>
@@ -1858,10 +1858,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C43"/>
       <c r="D43"/>
@@ -1872,10 +1872,10 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
@@ -1886,10 +1886,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
@@ -1900,10 +1900,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="C46"/>
       <c r="D46"/>
@@ -1914,10 +1914,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
@@ -1928,10 +1928,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="C48"/>
       <c r="D48"/>
@@ -1942,10 +1942,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B49" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
@@ -1956,10 +1956,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B50" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="C50"/>
       <c r="D50"/>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
@@ -1984,10 +1984,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="C52"/>
       <c r="D52"/>
@@ -1998,10 +1998,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C53"/>
       <c r="D53"/>
@@ -2012,10 +2012,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="C54"/>
       <c r="D54"/>
@@ -2026,10 +2026,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" t="s">
         <v>131</v>
-      </c>
-      <c r="B55" t="s">
-        <v>113</v>
       </c>
       <c r="C55"/>
       <c r="D55"/>
@@ -2040,10 +2040,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="C56"/>
       <c r="D56"/>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B57" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="C57"/>
       <c r="D57"/>
@@ -2068,10 +2068,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="C58"/>
       <c r="D58"/>
@@ -2082,10 +2082,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="C59"/>
       <c r="D59"/>
@@ -2096,10 +2096,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B60" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C60"/>
       <c r="D60"/>
@@ -2110,10 +2110,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B61" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C61"/>
       <c r="D61"/>
@@ -2124,10 +2124,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B62" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="C62"/>
       <c r="D62"/>
@@ -2138,10 +2138,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B63" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="C63"/>
       <c r="D63"/>
@@ -2152,10 +2152,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C64"/>
       <c r="D64"/>
@@ -2166,10 +2166,10 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B65" t="s">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="C65"/>
       <c r="D65"/>
@@ -2180,10 +2180,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B66" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="C66"/>
       <c r="D66"/>
@@ -2194,10 +2194,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B67" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="C67"/>
       <c r="D67"/>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B68" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C68"/>
       <c r="D68"/>
@@ -2222,10 +2222,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B69" t="s">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="C69"/>
       <c r="D69"/>
@@ -2236,10 +2236,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B70" t="s">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="C70"/>
       <c r="D70"/>
@@ -2250,10 +2250,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C71"/>
       <c r="D71"/>
@@ -2264,10 +2264,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B72" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C72"/>
       <c r="D72"/>
@@ -2278,10 +2278,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B73" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="C73"/>
       <c r="D73"/>
@@ -2292,10 +2292,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C74"/>
       <c r="D74"/>
@@ -2306,10 +2306,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B75" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="C75"/>
       <c r="D75"/>
@@ -2320,10 +2320,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B76" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="C76"/>
       <c r="D76"/>
@@ -2334,10 +2334,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B77" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C77"/>
       <c r="D77"/>
@@ -2348,10 +2348,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B78" t="s">
-        <v>146</v>
+        <v>62</v>
       </c>
       <c r="C78"/>
       <c r="D78"/>
@@ -2365,7 +2365,7 @@
         <v>171</v>
       </c>
       <c r="B79" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="C79"/>
       <c r="D79"/>
@@ -2376,10 +2376,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C80"/>
       <c r="D80"/>
@@ -2390,10 +2390,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B81" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="C81"/>
       <c r="D81"/>
@@ -2404,10 +2404,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B82" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="C82"/>
       <c r="D82"/>
@@ -2418,10 +2418,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B83" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C83"/>
       <c r="D83"/>
@@ -2432,10 +2432,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="C84"/>
       <c r="D84"/>
@@ -2446,10 +2446,10 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B85" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="C85"/>
       <c r="D85"/>
@@ -2460,10 +2460,10 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B86" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="C86"/>
       <c r="D86"/>
@@ -2474,10 +2474,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B87" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="C87"/>
       <c r="D87"/>
@@ -2488,10 +2488,10 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="C88"/>
       <c r="D88"/>
@@ -2502,10 +2502,10 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B89" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C89"/>
       <c r="D89"/>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B90" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="C90"/>
       <c r="D90"/>
@@ -2530,10 +2530,10 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B91" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="C91"/>
       <c r="D91"/>
@@ -2544,10 +2544,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C92"/>
       <c r="D92"/>
@@ -2558,10 +2558,10 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B93" t="s">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="C93"/>
       <c r="D93"/>
@@ -2572,10 +2572,10 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B94" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="C94"/>
       <c r="D94"/>
@@ -2586,10 +2586,10 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B95" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="C95"/>
       <c r="D95"/>
@@ -2600,10 +2600,10 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B96" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="C96"/>
       <c r="D96"/>
@@ -2614,10 +2614,10 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B97" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="C97"/>
       <c r="D97"/>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B98"/>
       <c r="C98"/>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B99"/>
       <c r="C99"/>
@@ -2652,7 +2652,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B100"/>
       <c r="C100"/>
@@ -2664,7 +2664,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B101"/>
       <c r="C101"/>
@@ -2676,7 +2676,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B102"/>
       <c r="C102"/>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B103"/>
       <c r="C103"/>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B104"/>
       <c r="C104"/>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B105"/>
       <c r="C105"/>
@@ -2724,7 +2724,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B106"/>
       <c r="C106"/>
@@ -2736,7 +2736,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B107"/>
       <c r="C107"/>
@@ -2748,7 +2748,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B108"/>
       <c r="C108"/>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B109"/>
       <c r="C109"/>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B110"/>
       <c r="C110"/>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B111"/>
       <c r="C111"/>
@@ -2796,7 +2796,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B112"/>
       <c r="C112"/>
@@ -2808,7 +2808,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B113"/>
       <c r="C113"/>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B114"/>
       <c r="C114"/>
@@ -2832,7 +2832,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B115"/>
       <c r="C115"/>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B116"/>
       <c r="C116"/>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B117"/>
       <c r="C117"/>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B118"/>
       <c r="C118"/>
@@ -2880,7 +2880,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B119"/>
       <c r="C119"/>
@@ -2892,7 +2892,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B120"/>
       <c r="C120"/>
@@ -2904,7 +2904,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B121"/>
       <c r="C121"/>
@@ -2916,7 +2916,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B122"/>
       <c r="C122"/>
@@ -2928,7 +2928,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B123"/>
       <c r="C123"/>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B124"/>
       <c r="C124"/>
@@ -2952,7 +2952,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B125"/>
       <c r="C125"/>
@@ -2964,7 +2964,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B126"/>
       <c r="C126"/>
@@ -2976,7 +2976,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B127"/>
       <c r="C127"/>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B128"/>
       <c r="C128"/>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B129"/>
       <c r="C129"/>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B130"/>
       <c r="C130"/>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B131"/>
       <c r="C131"/>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B132"/>
       <c r="C132"/>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B133"/>
       <c r="C133"/>
@@ -3060,7 +3060,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B134"/>
       <c r="C134"/>
@@ -3072,7 +3072,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B135"/>
       <c r="C135"/>
@@ -3084,7 +3084,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B136"/>
       <c r="C136"/>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B137"/>
       <c r="C137"/>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B138"/>
       <c r="C138"/>
@@ -3120,7 +3120,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B139"/>
       <c r="C139"/>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B140"/>
       <c r="C140"/>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B141"/>
       <c r="C141"/>
@@ -3156,7 +3156,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B142"/>
       <c r="C142"/>
@@ -3168,7 +3168,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B143"/>
       <c r="C143"/>
@@ -3180,7 +3180,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B144"/>
       <c r="C144"/>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B145"/>
       <c r="C145"/>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B146"/>
       <c r="C146"/>
@@ -3216,7 +3216,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B147"/>
       <c r="C147"/>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B148"/>
       <c r="C148"/>
@@ -3240,7 +3240,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B149"/>
       <c r="C149"/>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B150"/>
       <c r="C150"/>
@@ -3264,7 +3264,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B151"/>
       <c r="C151"/>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B152"/>
       <c r="C152"/>
@@ -3288,7 +3288,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B153"/>
       <c r="C153"/>
@@ -3300,7 +3300,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B154"/>
       <c r="C154"/>
@@ -3312,7 +3312,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B155"/>
       <c r="C155"/>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B156"/>
       <c r="C156"/>
@@ -3336,7 +3336,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B157"/>
       <c r="C157"/>
@@ -3348,7 +3348,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B158"/>
       <c r="C158"/>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B159"/>
       <c r="C159"/>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B160"/>
       <c r="C160"/>
@@ -3384,7 +3384,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B161"/>
       <c r="C161"/>
@@ -3396,7 +3396,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B162"/>
       <c r="C162"/>
@@ -3408,7 +3408,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B163"/>
       <c r="C163"/>
@@ -3420,7 +3420,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B164"/>
       <c r="C164"/>
@@ -3432,7 +3432,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B165"/>
       <c r="C165"/>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B166"/>
       <c r="C166"/>
@@ -3456,7 +3456,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B167"/>
       <c r="C167"/>
@@ -3468,7 +3468,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B168"/>
       <c r="C168"/>
@@ -3480,7 +3480,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B169"/>
       <c r="C169"/>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B170"/>
       <c r="C170"/>
@@ -3504,7 +3504,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B171"/>
       <c r="C171"/>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B172"/>
       <c r="C172"/>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B173"/>
       <c r="C173"/>
@@ -3540,7 +3540,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B174"/>
       <c r="C174"/>
@@ -3552,7 +3552,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B175"/>
       <c r="C175"/>
@@ -3564,7 +3564,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B176"/>
       <c r="C176"/>

--- a/compare_ud.xlsx
+++ b/compare_ud.xlsx
@@ -17,28 +17,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Список 1
-без дублей и пустых ячеек</t>
-  </si>
-  <si>
-    <t>Список2
-без дублей и пустых ячеек</t>
-  </si>
-  <si>
-    <t>Объединение списков
-без дублей</t>
-  </si>
-  <si>
-    <t>Общие значения
-обоих списков</t>
-  </si>
-  <si>
-    <t>То, что есть в 1 и нет в 2</t>
-  </si>
-  <si>
-    <t>То, что есть в 2 и нет в 1</t>
-  </si>
-  <si>
-    <t>Список 1
 (ОЧИСТИТЬ и ВСТАВЛЯТЬ
 В ЯЧЕЙКИ НИЖЕ)</t>
   </si>
@@ -46,6 +24,28 @@
     <t>Список 2
 (ОЧИСТИТЬ и ВСТАВЛЯТЬ
 В ЯЧЕЙКИ НИЖЕ)</t>
+  </si>
+  <si>
+    <t>Список 1
+без дублей и пустых ячеек</t>
+  </si>
+  <si>
+    <t>Список2
+без дублей и пустых ячеек</t>
+  </si>
+  <si>
+    <t>Объединение списков
+без дублей</t>
+  </si>
+  <si>
+    <t>Общие значения
+обоих списков</t>
+  </si>
+  <si>
+    <t>То, что есть в 1 и нет в 2</t>
+  </si>
+  <si>
+    <t>То, что есть в 2 и нет в 1</t>
   </si>
 </sst>
 </file>
@@ -463,34 +463,34 @@
     <col min="6" max="6" width="32.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="36.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="35.7109375" style="1" customWidth="1"/>
-    <col min="9" max="23" width="9.140625" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="28" width="9.140625" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/compare_ud.xlsx
+++ b/compare_ud.xlsx
@@ -1,92 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" calcOnSave="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1" calcOnSave="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Список 1
-(ОЧИСТИТЬ и ВСТАВЛЯТЬ
-В ЯЧЕЙКИ НИЖЕ)</t>
-  </si>
-  <si>
-    <t>Список 2
-(ОЧИСТИТЬ и ВСТАВЛЯТЬ
-В ЯЧЕЙКИ НИЖЕ)</t>
-  </si>
-  <si>
-    <t>Список 1
-без дублей и пустых ячеек</t>
-  </si>
-  <si>
-    <t>Список2
-без дублей и пустых ячеек</t>
-  </si>
-  <si>
-    <t>Объединение списков
-без дублей</t>
-  </si>
-  <si>
-    <t>Общие значения
-обоих списков</t>
-  </si>
-  <si>
-    <t>То, что есть в 1 и нет в 2</t>
-  </si>
-  <si>
-    <t>То, что есть в 2 и нет в 1</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -100,6 +64,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00878787"/>
+        <bgColor rgb="00878787"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -130,32 +106,93 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -443,58 +480,1895 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.7109375" style="1" customWidth="1"/>
-    <col min="9" max="28" width="9.140625" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col width="35.42578125" customWidth="1" style="1" min="1" max="1"/>
+    <col width="37.42578125" customWidth="1" style="1" min="2" max="2"/>
+    <col width="39.5703125" customWidth="1" style="1" min="3" max="3"/>
+    <col width="35.85546875" customWidth="1" style="1" min="4" max="4"/>
+    <col width="37.85546875" customWidth="1" style="1" min="5" max="5"/>
+    <col width="32.85546875" customWidth="1" style="1" min="6" max="6"/>
+    <col width="36.140625" customWidth="1" style="1" min="7" max="7"/>
+    <col width="35.7109375" customWidth="1" style="1" min="8" max="8"/>
+    <col width="9.140625" customWidth="1" style="1" min="9" max="22"/>
+    <col width="9.140625" customWidth="1" style="1" min="23" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
+    <row r="1" ht="60" customHeight="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Список 1
+(ВСТАВЛЯТЬ В ЯЧЕЙКИ НИЖЕ)</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Список 2
+(ВСТАВЛЯТЬ В ЯЧЕЙКИ НИЖЕ)</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Список 1
+без дублей и пустых ячеек</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Список2
+без дублей и пустых ячеек</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Объединение списков
+без дублей</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Общие значения
+обоих списков</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>То, что есть в 1 и нет в 2</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>То, что есть в 2 и нет в 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>.11901500051000159</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>11901500051002868</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>12001500051000397</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12001500051000798</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>12001500051000397</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12001500051000798</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12001500051000397</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>12001500051001535</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>.11901500051002336</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>12001500051000262</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>12001500051000798</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12001500051000945</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>12001500051000945</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12001500051000945</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>12001500051001085</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>12001500051001838</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>.11901500051002868</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>12001500051000455</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>12002500004000073</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12001500051001535</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>12002500004000073</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>12001500051000809</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>12002500004000073</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>12001500051001716</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>.11901500051003333</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>12001500051000465</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>12001500051000945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12001500051001838</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>12001500051001085</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>12001500051000781</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>11901500051003333</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>12001500051001492</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>.12002500004000050</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>12001500051000485</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>11901500051003333</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12001500051000809</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>12001500051001535</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>12001500051000713</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>12001500051001140</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12001500051002103</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>.12002500004000057</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12001500051000576</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>12001500051001085</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12001500051001716</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>12001500051001838</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>12001500051000465</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>12001500051000782</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12001500051000710</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>.12002500004000057</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>12001500051000625</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>12001500051000809</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12001500051000781</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>12001500051000809</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>12001500051000880</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>12001500051000474</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>12001500051001822</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>.12002500004000061</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>12001500051000644</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>12001500051001140</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12001500051001492</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>12001500051001716</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>12001500051000455</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>12002500004000074</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12001500051001338</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>.12002500004000073</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>12001500051000646</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>12001500051000781</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12001500051002103</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>12001500051000781</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>12001500051000485</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>12001500051000419</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12001500051001812</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>.12002500004000074</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>12001500051000710</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>12001500051000782</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11901500051002868</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>12001500051000782</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>12001500051000262</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>12002500004000157</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>12001500051001916</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>.12002500004000104</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>12001500051000713</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>12001500051000474</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12001500051000710</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>12001500051002103</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>12001500051000576</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>12002500004000050</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12001500051002029</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>.12002500004000122</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12001500051000781</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>11901500051002868</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12001500051000644</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12001500051000474</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>11901500051002868</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>12002500004000122</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>12001500051002250</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>.12002500004000141</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>12001500051000798</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>12001500051000644</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12001500051001822</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>11901500051002868</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>12001500051000625</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>12002500004000057</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>12001500051001906</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>.12002500004000141</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>12001500051000809</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>12002500004000074</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12001500051000713</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>12001500051000710</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>12001500051001066</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>11901500051002336</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>12001500051001985</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>.12002500004000143</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1.20.01500051.000880</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>12001500051000419</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12001500051001338</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>12001500051000644</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>12001500051000644</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>12001500051000196</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>12001500051001024</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>.12002500004000149</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>12001500051000945</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>12002500004000157</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12001500051001812</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>12001500051001822</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>120015000510006464</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>12001500051002913</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>.12002500004000157</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>1/2001500051000954</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>12001500051000713</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12001500051001916</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>12002500004000157</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>12001500051001153</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>12001500051001346</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>.12001500051000196</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>12001500051001024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>12002500004000050</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12001500051000625</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>12001500051001812</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>12002500004000149</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>12001500051000646</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>.12001500051000262</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>12001500051001066</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>12001500051000625</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12001500051002029</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>12002500004000050</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>11901500051000159</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>12001500051001483</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>.12001500051000263</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>12001500051001214</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>12002500004000122</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12001500051002250</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>12002500004000122</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>12001500051000801</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>12001500051001705</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>.12001500051000378</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>12001500051001295</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>12002500004000057</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12001500051001906</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>12002500004000057</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>12001500051000263</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>12001500051001889</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>.12001500051000397</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>12001500051001335</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>11901500051002336</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12001500051001985</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>12001500051001024</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>12002500004000143</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>12001500051001295</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>.12001500051000419</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>12001500051001338.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>12001500051000196</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12001500051001024</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>12001500051002913</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>12001500051000378</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>12001500051001214</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="n"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>12001500051001346</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>120015000510006464</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12001500051002913</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>12001500051000880</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>12001500051000550</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>12001500051002024</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>.12001500051000455</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>12001500051001483</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>12001500051000465</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12001500051000465</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>12001500051000455</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>12001500051000743</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>12001500051002339</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>.12001500051000465</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>12001500051001492</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>12001500051000880</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12001500051000880</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>12001500051000485</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>12002500004000061</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>12001500051001335</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>.12001500051000474</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>12001500051001535</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>12001500051000455</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>12001500051000455</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>12002500004000149</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>12001500051001124</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>.12001500051000475</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>12001500051001705</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>12001500051000485</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12001500051000485</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>11901500051000159</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>12002500004000104</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>.12001500051000485</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>12001500051001716</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>12001500051000262</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12001500051000262</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>12002500004000143</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>12002500004000141</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>.12001500051000486</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>12001500051001812</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>12001500051001153</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12001500051000646</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>12001500051001066</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>12001500051000475</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>.12001500051000550</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>12001500051001822</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>12002500004000149</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12001500051001346</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>12001500051001214</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>12001500051000486</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>.12001500051000576</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>12001500051001838</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>11901500051000159</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12001500051001483</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>12001500051002024</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">.12001500051000625       </t>
+        </is>
+      </c>
+      <c r="B34" s="6" t="n"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>12001500051000801</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>12001500051001705</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>12001500051000378</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>.12001500051000644</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>12001500051001889</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>12001500051000263</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>12001500051001066</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>12001500051000743</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>.12001500051000646     4</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>12001500051001906</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>12002500004000143</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12001500051001889</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>12002500004000061</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>12001500051001916</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>12001500051001066</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12001500051001295</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>12001500051001124</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>.12001500051000713</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>12001500051001985</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>12001500051000378</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12001500051001214</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>12002500004000141</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>.12001500051000743</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>12001500051002024</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>12001500051000550</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12001500051002024</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>12001500051001335</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>.12001500051000781</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>12001500051002029</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>12001500051000743</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>12001500051000576</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>12001500051000798</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>.12001500051000782</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>12001500051002103</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>12002500004000061</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>12001500051002339</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>11901500051003333</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>.12001500051000798</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>12001500051002250</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>12001500051000576</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>12001500051001335</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>12001500051001140</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>.12001500051000801    .</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>12001500051002250</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>12001500051001124</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>12001500051001492</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>.12001500051000809</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>12001500051002913</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>12002500004000104</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>12002500004000074</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>.12001500051000880</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>12001500051002339</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>12002500004000141</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>12001500051000419</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>.12001500051000945</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>12001500051002339</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>12001500051000475</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>12001500051000713</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>.12001500051001066</t>
+        </is>
+      </c>
+      <c r="B47" s="6" t="n"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>12001500051000486</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>12001500051001338</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>.12001500051001085</t>
+        </is>
+      </c>
+      <c r="B48" s="6" t="n"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>12001500051001916</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>.12001500051001124</t>
+        </is>
+      </c>
+      <c r="B49" s="6" t="n"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>12001500051000625</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>.12001500051001140</t>
+        </is>
+      </c>
+      <c r="B50" s="6" t="n"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>12001500051002029</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>.12001500051001153</t>
+        </is>
+      </c>
+      <c r="B51" s="6" t="n"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>12001500051002250</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="n"/>
+      <c r="B52" s="6" t="n"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>12001500051001906</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n"/>
+      <c r="B53" s="6" t="n"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>12001500051001985</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="n"/>
+      <c r="B54" s="6" t="n"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>11901500051002336</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="n"/>
+      <c r="B55" s="6" t="n"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>12001500051000196</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="n"/>
+      <c r="B56" s="6" t="n"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>120015000510006464</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="n"/>
+      <c r="B57" s="6" t="n"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>12001500051000465</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="n"/>
+      <c r="B58" s="6" t="n"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>12001500051001346</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="n"/>
+      <c r="B59" s="6" t="n"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>12001500051000262</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="6" t="n"/>
+      <c r="B60" s="6" t="n"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>12001500051001153</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="n"/>
+      <c r="B61" s="6" t="n"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>12001500051000646</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="6" t="n"/>
+      <c r="B62" s="6" t="n"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>12001500051000801</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="n"/>
+      <c r="B63" s="6" t="n"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>12001500051001483</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="6" t="n"/>
+      <c r="B64" s="6" t="n"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>12001500051000263</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="6" t="n"/>
+      <c r="B65" s="6" t="n"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>12001500051001705</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="6" t="n"/>
+      <c r="B66" s="6" t="n"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>12001500051001889</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="6" t="n"/>
+      <c r="B67" s="6" t="n"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>12001500051001295</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="6" t="n"/>
+      <c r="B68" s="6" t="n"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>12001500051000550</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="6" t="n"/>
+      <c r="B69" s="6" t="n"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>12001500051000576</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="6" t="n"/>
+      <c r="B70" s="6" t="n"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>12002500004000104</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="6" t="n"/>
+      <c r="B71" s="6" t="n"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>12001500051002339</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="6" t="n"/>
+      <c r="B72" s="6" t="n"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>12001500051000475</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="6" t="n"/>
+      <c r="B73" s="6" t="n"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>12001500051000486</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/compare_ud.xlsx
+++ b/compare_ud.xlsx
@@ -487,11 +487,11 @@
   </sheetPr>
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -504,8 +504,8 @@
     <col width="32.85546875" customWidth="1" style="1" min="6" max="6"/>
     <col width="36.140625" customWidth="1" style="1" min="7" max="7"/>
     <col width="35.7109375" customWidth="1" style="1" min="8" max="8"/>
-    <col width="9.140625" customWidth="1" style="1" min="9" max="22"/>
-    <col width="9.140625" customWidth="1" style="1" min="23" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="9" max="23"/>
+    <col width="9.140625" customWidth="1" style="1" min="24" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="60" customHeight="1">
@@ -569,32 +569,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12001500051000397</t>
+          <t>12001500051000465</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12001500051000798</t>
+          <t>12001500051000465</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12001500051000397</t>
+          <t>12001500051000644</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12001500051000798</t>
+          <t>12001500051000465</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12001500051000397</t>
+          <t>12002500004000073</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>12001500051001535</t>
+          <t>12001500051002029</t>
         </is>
       </c>
     </row>
@@ -611,32 +611,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12001500051000798</t>
+          <t>12001500051000644</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12001500051000945</t>
+          <t>12001500051002029</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12001500051000945</t>
+          <t>12001500051001295</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>12001500051000945</t>
+          <t>11901500051002868</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12001500051001085</t>
+          <t>12001500051001124</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>12001500051001838</t>
+          <t>12001500051001295</t>
         </is>
       </c>
     </row>
@@ -658,27 +658,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12001500051001535</t>
+          <t>12001500051000644</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12002500004000073</t>
+          <t>12001500051000781</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>12001500051000809</t>
+          <t>12001500051000644</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>12002500004000073</t>
+          <t>12001500051000782</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>12001500051001716</t>
+          <t>12001500051001214</t>
         </is>
       </c>
     </row>
@@ -695,32 +695,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12001500051000945</t>
+          <t>12001500051000713</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12001500051001838</t>
+          <t>12001500051001295</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12001500051001085</t>
+          <t>12001500051001124</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>12001500051000781</t>
+          <t>12001500051000880</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>11901500051003333</t>
+          <t>12001500051001153</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>12001500051001492</t>
+          <t>12001500051002103</t>
         </is>
       </c>
     </row>
@@ -737,32 +737,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11901500051003333</t>
+          <t>12001500051000781</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12001500051000809</t>
+          <t>12001500051000713</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12001500051001535</t>
+          <t>12001500051001214</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>12001500051000713</t>
+          <t>12001500051001066</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>12001500051001140</t>
+          <t>12002500004000057</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>12001500051002103</t>
+          <t>12001500051000646</t>
         </is>
       </c>
     </row>
@@ -779,32 +779,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12001500051001085</t>
+          <t>12001500051001124</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12001500051001716</t>
+          <t>12001500051000781</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12001500051001838</t>
+          <t>12002500004000057</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>12001500051000465</t>
+          <t>12001500051000713</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>12001500051000782</t>
+          <t>12001500051000378</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>12001500051000710</t>
+          <t>12001500051001335</t>
         </is>
       </c>
     </row>
@@ -821,32 +821,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12001500051000809</t>
+          <t>12001500051000782</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12001500051000781</t>
+          <t>12001500051001214</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12001500051000809</t>
+          <t>12001500051001812</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>12001500051000880</t>
+          <t>12001500051000262</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>12001500051000474</t>
+          <t>12001500051001085</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>12001500051001822</t>
+          <t>12001500051001812</t>
         </is>
       </c>
     </row>
@@ -863,32 +863,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12001500051001140</t>
+          <t>12001500051000798</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12001500051001492</t>
+          <t>12001500051000798</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12001500051001716</t>
+          <t>12001500051000378</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>12001500051000455</t>
+          <t>12001500051000809</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>12002500004000074</t>
+          <t>12002500004000061</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>12001500051001338</t>
+          <t>12001500051002339</t>
         </is>
       </c>
     </row>
@@ -905,32 +905,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>12002500004000057</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12001500051002103</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>12001500051000262</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>12001500051000781</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>12001500051002103</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>12001500051000781</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>12001500051000485</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>12001500051000419</t>
+          <t>12001500051000801</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>12001500051001812</t>
+          <t>12001500051001535</t>
         </is>
       </c>
     </row>
@@ -947,32 +947,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12001500051000782</t>
+          <t>12001500051001153</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11901500051002868</t>
+          <t>12001500051000646</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12001500051000782</t>
+          <t>12001500051001535</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>12001500051000262</t>
+          <t>12001500051000485</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>12002500004000157</t>
+          <t>12001500051000397</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>12001500051001916</t>
+          <t>12001500051001838</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12001500051000474</t>
+          <t>12001500051001066</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>12001500051000710</t>
+          <t>12001500051001335</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12001500051002103</t>
+          <t>12001500051001838</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>12001500051000576</t>
+          <t>12001500051000625</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>12002500004000050</t>
+          <t>12001500051000486</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>12001500051002029</t>
+          <t>12001500051001338</t>
         </is>
       </c>
     </row>
@@ -1031,32 +1031,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>11901500051002868</t>
+          <t>12001500051000378</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12001500051000644</t>
+          <t>12001500051001812</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12001500051000474</t>
+          <t>12002500004000061</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>11901500051002868</t>
+          <t>12001500051000455</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>12002500004000122</t>
+          <t>12002500004000141</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>12001500051002250</t>
+          <t>12001500051001492</t>
         </is>
       </c>
     </row>
@@ -1073,32 +1073,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12001500051000644</t>
+          <t>12001500051000262</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12001500051001822</t>
+          <t>12001500051001066</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11901500051002868</t>
+          <t>12001500051000801</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>12001500051000625</t>
+          <t>12001500051000576</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>12002500004000057</t>
+          <t>12002500004000143</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>12001500051001906</t>
+          <t>12001500051001705</t>
         </is>
       </c>
     </row>
@@ -1115,32 +1115,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12002500004000074</t>
+          <t>12001500051001085</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12001500051000713</t>
+          <t>12001500051001535</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12001500051000710</t>
+          <t>12001500051000397</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>12001500051001066</t>
+          <t>12001500051000945</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>11901500051002336</t>
+          <t>12001500051000474</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>12001500051001985</t>
+          <t>12001500051002913</t>
         </is>
       </c>
     </row>
@@ -1157,32 +1157,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12001500051000419</t>
+          <t>12002500004000061</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12001500051001338</t>
+          <t>12001500051000262</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12001500051000644</t>
+          <t>12001500051000486</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>12001500051000644</t>
+          <t>12001500051000798</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>12001500051000196</t>
+          <t>12002500004000149</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>12001500051001024</t>
+          <t>12001500051001346</t>
         </is>
       </c>
     </row>
@@ -1199,27 +1199,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>12002500004000157</t>
+          <t>12001500051000625</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>12001500051001812</t>
+          <t>12001500051001838</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12001500051001822</t>
+          <t>12002500004000141</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>120015000510006464</t>
+          <t>12001500051000475</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>12001500051002913</t>
+          <t>12001500051001889</t>
         </is>
       </c>
     </row>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>12001500051000713</t>
+          <t>12001500051000801</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>12001500051001916</t>
+          <t>12001500051002339</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12002500004000157</t>
+          <t>12001500051001492</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>12001500051001153</t>
+          <t>12002500004000050</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>12001500051001346</t>
+          <t>12001500051002250</t>
         </is>
       </c>
     </row>
@@ -1273,27 +1273,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>12002500004000050</t>
+          <t>12001500051000397</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>12001500051000625</t>
+          <t>12001500051001338</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12001500051001812</t>
+          <t>12001500051000945</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>12002500004000149</t>
+          <t>11901500051000159</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>12001500051000646</t>
+          <t>12001500051001716</t>
         </is>
       </c>
     </row>
@@ -1310,27 +1310,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>12001500051000486</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>12001500051000625</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>12001500051002029</t>
-        </is>
-      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12002500004000050</t>
+          <t>12001500051001346</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>11901500051000159</t>
+          <t>12002500004000122</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>12001500051001483</t>
+          <t>12001500051001822</t>
         </is>
       </c>
     </row>
@@ -1347,27 +1347,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>12002500004000122</t>
+          <t>12002500004000141</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>12001500051002250</t>
+          <t>12001500051001492</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12002500004000122</t>
+          <t>12001500051001705</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>12001500051000801</t>
+          <t>12001500051000196</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>12001500051001705</t>
+          <t>12001500051001985</t>
         </is>
       </c>
     </row>
@@ -1384,27 +1384,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>12002500004000057</t>
+          <t>12002500004000143</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>12001500051001906</t>
+          <t>12001500051000945</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12002500004000057</t>
+          <t>12001500051002250</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>12001500051000263</t>
+          <t>12002500004000157</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>12001500051001889</t>
+          <t>12001500051001916</t>
         </is>
       </c>
     </row>
@@ -1421,27 +1421,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>11901500051002336</t>
+          <t>12001500051000945</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>12001500051001985</t>
+          <t>12001500051001346</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12001500051001024</t>
+          <t>12002500004000050</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>12002500004000143</t>
+          <t>11901500051003333</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>12001500051001295</t>
+          <t>12001500051001483</t>
         </is>
       </c>
     </row>
@@ -1458,50 +1458,54 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>12001500051000474</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12001500051001705</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>12001500051000196</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>12001500051001024</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>12001500051000419</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>12001500051002024</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        </t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>12001500051001346</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>12002500004000149</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>12001500051002913</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>12001500051000378</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>12001500051001214</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="n"/>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>12001500051001346</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>120015000510006464</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>12001500051002913</t>
-        </is>
-      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12001500051000880</t>
+          <t>12001500051001716</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1511,7 +1515,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>12001500051002024</t>
+          <t>12001500051001906</t>
         </is>
       </c>
     </row>
@@ -1528,12 +1532,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>12001500051000465</t>
+          <t>12001500051000475</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>12001500051000465</t>
+          <t>12001500051001889</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1543,12 +1547,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>12001500051000743</t>
+          <t>12002500004000104</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>12001500051002339</t>
+          <t>12001500051001024</t>
         </is>
       </c>
     </row>
@@ -1565,27 +1569,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>12001500051000880</t>
+          <t>12002500004000050</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>12001500051000880</t>
+          <t>12001500051002250</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12001500051000485</t>
+          <t>12001500051000419</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>12002500004000061</t>
+          <t>120015000510006464</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>12001500051001335</t>
+          <t>12001500051000710</t>
         </is>
       </c>
     </row>
@@ -1602,22 +1606,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>12001500051000455</t>
+          <t>11901500051000159</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12001500051000455</t>
+          <t>12001500051001716</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12002500004000149</t>
+          <t>12001500051000576</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>12001500051001124</t>
+          <t>11901500051002336</t>
         </is>
       </c>
     </row>
@@ -1634,22 +1638,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>12001500051000485</t>
+          <t>12002500004000122</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>12001500051000485</t>
+          <t>12001500051000455</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11901500051000159</t>
+          <t>12001500051001822</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>12002500004000104</t>
+          <t>12001500051001140</t>
         </is>
       </c>
     </row>
@@ -1666,22 +1670,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>12001500051000262</t>
+          <t>12001500051000196</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12001500051000262</t>
+          <t>12001500051000576</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12002500004000143</t>
+          <t>120015000510006464</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>12002500004000141</t>
+          <t>12001500051000263</t>
         </is>
       </c>
     </row>
@@ -1698,22 +1702,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>12001500051001153</t>
+          <t>12001500051000455</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12001500051000646</t>
+          <t>12001500051001822</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12001500051001066</t>
+          <t>12001500051000880</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12001500051000475</t>
+          <t>12001500051000743</t>
         </is>
       </c>
     </row>
@@ -1730,22 +1734,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>12002500004000149</t>
+          <t>12002500004000157</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>12001500051001346</t>
+          <t>11901500051002868</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12001500051001214</t>
+          <t>11901500051002336</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>12001500051000486</t>
+          <t>12002500004000074</t>
         </is>
       </c>
     </row>
@@ -1762,17 +1766,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>11901500051000159</t>
+          <t>11901500051003333</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>12001500051001483</t>
+          <t>12001500051001985</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>12001500051002024</t>
+          <t>12001500051000743</t>
         </is>
       </c>
     </row>
@@ -1785,17 +1789,17 @@
       <c r="B34" s="6" t="n"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>12001500051000801</t>
+          <t>12001500051000419</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>12001500051001705</t>
+          <t>12001500051001916</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>12001500051000378</t>
+          <t>12001500051001024</t>
         </is>
       </c>
     </row>
@@ -1812,17 +1816,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>12001500051000263</t>
+          <t>12001500051000550</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>12001500051001066</t>
+          <t>12001500051000880</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>12001500051000743</t>
+          <t>12001500051000710</t>
         </is>
       </c>
     </row>
@@ -1839,17 +1843,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>12002500004000143</t>
+          <t>12001500051000576</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12001500051001889</t>
+          <t>12001500051001483</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>12002500004000061</t>
+          <t>12001500051000465</t>
         </is>
       </c>
     </row>
@@ -1862,17 +1866,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>12001500051001066</t>
+          <t>12002500004000104</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>12001500051001295</t>
+          <t>12001500051002024</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>12001500051001124</t>
+          <t>12001500051002029</t>
         </is>
       </c>
     </row>
@@ -1889,17 +1893,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>12001500051000378</t>
+          <t>11901500051002868</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>12001500051001214</t>
+          <t>12001500051000809</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>12002500004000141</t>
+          <t>12002500004000073</t>
         </is>
       </c>
     </row>
@@ -1916,17 +1920,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>12001500051000550</t>
+          <t>120015000510006464</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>12001500051002024</t>
+          <t>12001500051000485</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>12001500051001335</t>
+          <t>12001500051000713</t>
         </is>
       </c>
     </row>
@@ -1943,17 +1947,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>12001500051000743</t>
+          <t>12001500051000880</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>12001500051000576</t>
+          <t>12001500051001906</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>12001500051000798</t>
+          <t>12001500051000782</t>
         </is>
       </c>
     </row>
@@ -1970,17 +1974,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>12002500004000061</t>
+          <t>11901500051002336</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>12001500051002339</t>
+          <t>12001500051001024</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11901500051003333</t>
+          <t>12001500051000798</t>
         </is>
       </c>
     </row>
@@ -1997,17 +2001,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>12001500051000576</t>
+          <t>12001500051001140</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>12001500051001335</t>
+          <t>12001500051000710</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>12001500051001140</t>
+          <t>12001500051002103</t>
         </is>
       </c>
     </row>
@@ -2024,12 +2028,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>12001500051001124</t>
+          <t>12001500051000263</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>12001500051001492</t>
+          <t>12001500051000646</t>
         </is>
       </c>
     </row>
@@ -2046,12 +2050,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>12002500004000104</t>
+          <t>12001500051000809</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>12002500004000074</t>
+          <t>12001500051001335</t>
         </is>
       </c>
     </row>
@@ -2068,12 +2072,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>12002500004000141</t>
+          <t>12001500051000485</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>12001500051000419</t>
+          <t>12001500051001153</t>
         </is>
       </c>
     </row>
@@ -2090,12 +2094,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>12001500051000475</t>
+          <t>12001500051000743</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>12001500051000713</t>
+          <t>12001500051002339</t>
         </is>
       </c>
     </row>
@@ -2108,12 +2112,12 @@
       <c r="B47" s="6" t="n"/>
       <c r="C47" t="inlineStr">
         <is>
-          <t>12001500051000486</t>
+          <t>12002500004000074</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>12001500051001338</t>
+          <t>12001500051001066</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2130,7 @@
       <c r="B48" s="6" t="n"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>12001500051001916</t>
+          <t>12001500051001085</t>
         </is>
       </c>
     </row>
@@ -2139,7 +2143,7 @@
       <c r="B49" s="6" t="n"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>12001500051000625</t>
+          <t>12001500051001338</t>
         </is>
       </c>
     </row>
@@ -2152,7 +2156,7 @@
       <c r="B50" s="6" t="n"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>12001500051002029</t>
+          <t>12001500051000625</t>
         </is>
       </c>
     </row>
@@ -2165,7 +2169,7 @@
       <c r="B51" s="6" t="n"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>12001500051002250</t>
+          <t>12002500004000143</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2178,7 @@
       <c r="B52" s="6" t="n"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>12001500051001906</t>
+          <t>12001500051002913</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2187,7 @@
       <c r="B53" s="6" t="n"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>12001500051001985</t>
+          <t>12001500051001889</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2196,7 @@
       <c r="B54" s="6" t="n"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11901500051002336</t>
+          <t>12001500051000474</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2205,7 @@
       <c r="B55" s="6" t="n"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>12001500051000196</t>
+          <t>12002500004000149</t>
         </is>
       </c>
     </row>
@@ -2210,7 +2214,7 @@
       <c r="B56" s="6" t="n"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>120015000510006464</t>
+          <t>12001500051000475</t>
         </is>
       </c>
     </row>
@@ -2219,7 +2223,7 @@
       <c r="B57" s="6" t="n"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>12001500051000465</t>
+          <t>11901500051000159</t>
         </is>
       </c>
     </row>
@@ -2228,7 +2232,7 @@
       <c r="B58" s="6" t="n"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>12001500051001346</t>
+          <t>12002500004000122</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2241,7 @@
       <c r="B59" s="6" t="n"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>12001500051000262</t>
+          <t>12002500004000157</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2250,7 @@
       <c r="B60" s="6" t="n"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>12001500051001153</t>
+          <t>11901500051003333</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2259,7 @@
       <c r="B61" s="6" t="n"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>12001500051000646</t>
+          <t>12001500051000550</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2268,7 @@
       <c r="B62" s="6" t="n"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>12001500051000801</t>
+          <t>12002500004000104</t>
         </is>
       </c>
     </row>
@@ -2273,7 +2277,7 @@
       <c r="B63" s="6" t="n"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>12001500051001483</t>
+          <t>11901500051002868</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2286,7 @@
       <c r="B64" s="6" t="n"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>12001500051000263</t>
+          <t>12001500051001985</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2295,7 @@
       <c r="B65" s="6" t="n"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>12001500051001705</t>
+          <t>12001500051001916</t>
         </is>
       </c>
     </row>
@@ -2300,7 +2304,7 @@
       <c r="B66" s="6" t="n"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>12001500051001889</t>
+          <t>12001500051001140</t>
         </is>
       </c>
     </row>
@@ -2309,7 +2313,7 @@
       <c r="B67" s="6" t="n"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>12001500051001295</t>
+          <t>12001500051001483</t>
         </is>
       </c>
     </row>
@@ -2318,7 +2322,7 @@
       <c r="B68" s="6" t="n"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>12001500051000550</t>
+          <t>12001500051000263</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2331,7 @@
       <c r="B69" s="6" t="n"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>12001500051000576</t>
+          <t>12001500051000809</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2340,7 @@
       <c r="B70" s="6" t="n"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>12002500004000104</t>
+          <t>12001500051002024</t>
         </is>
       </c>
     </row>
@@ -2345,7 +2349,7 @@
       <c r="B71" s="6" t="n"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>12001500051002339</t>
+          <t>12001500051000485</t>
         </is>
       </c>
     </row>
@@ -2354,7 +2358,7 @@
       <c r="B72" s="6" t="n"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>12001500051000475</t>
+          <t>12001500051001906</t>
         </is>
       </c>
     </row>
@@ -2363,7 +2367,7 @@
       <c r="B73" s="6" t="n"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>12001500051000486</t>
+          <t>12002500004000074</t>
         </is>
       </c>
     </row>

--- a/compare_ud.xlsx
+++ b/compare_ud.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
   <si>
     <t>Список 1
 (ВСТАВЛЯТЬ В ЯЧЕЙКИ НИЖЕ)</t>
@@ -57,195 +57,183 @@
     <t>11901500051002868</t>
   </si>
   <si>
+    <t>12001500051001335</t>
+  </si>
+  <si>
+    <t>12001500051000485</t>
+  </si>
+  <si>
+    <t>.11901500051002336</t>
+  </si>
+  <si>
+    <t>12001500051000262</t>
+  </si>
+  <si>
+    <t>12001500051000646</t>
+  </si>
+  <si>
+    <t>12001500051000713</t>
+  </si>
+  <si>
+    <t>.11901500051002868</t>
+  </si>
+  <si>
+    <t>12001500051000455</t>
+  </si>
+  <si>
+    <t>12001500051001483</t>
+  </si>
+  <si>
+    <t>12001500051000625</t>
+  </si>
+  <si>
+    <t>.11901500051003333</t>
+  </si>
+  <si>
     <t>12001500051000465</t>
   </si>
   <si>
-    <t>12001500051000644</t>
+    <t>12001500051001535</t>
+  </si>
+  <si>
+    <t>.12002500004000050</t>
+  </si>
+  <si>
+    <t>12001500051001705</t>
+  </si>
+  <si>
+    <t>12001500051000576</t>
+  </si>
+  <si>
+    <t>.12002500004000057</t>
+  </si>
+  <si>
+    <t>12001500051002024</t>
+  </si>
+  <si>
+    <t>12001500051000781</t>
+  </si>
+  <si>
+    <t>12001500051001492</t>
+  </si>
+  <si>
+    <t>.12002500004000061</t>
+  </si>
+  <si>
+    <t>12001500051000945</t>
+  </si>
+  <si>
+    <t>.12002500004000073</t>
+  </si>
+  <si>
+    <t>12001500051000798</t>
+  </si>
+  <si>
+    <t>12001500051002103</t>
+  </si>
+  <si>
+    <t>.12002500004000074</t>
+  </si>
+  <si>
+    <t>12001500051000710</t>
+  </si>
+  <si>
+    <t>12001500051001214</t>
+  </si>
+  <si>
+    <t>.12002500004000104</t>
+  </si>
+  <si>
+    <t>.12002500004000122</t>
+  </si>
+  <si>
+    <t>12001500051001916</t>
+  </si>
+  <si>
+    <t>.12002500004000141</t>
+  </si>
+  <si>
+    <t>12001500051001066</t>
+  </si>
+  <si>
+    <t>12001500051001024</t>
+  </si>
+  <si>
+    <t>12001500051000809</t>
+  </si>
+  <si>
+    <t>12001500051001889</t>
+  </si>
+  <si>
+    <t>.12002500004000143</t>
+  </si>
+  <si>
+    <t>1.20.01500051.000880</t>
+  </si>
+  <si>
+    <t>12001500051001346</t>
+  </si>
+  <si>
+    <t>.12002500004000149</t>
   </si>
   <si>
     <t>12001500051002029</t>
   </si>
   <si>
-    <t>.11901500051002336</t>
-  </si>
-  <si>
-    <t>12001500051000262</t>
+    <t>.12002500004000157</t>
+  </si>
+  <si>
+    <t>1/2001500051000954</t>
+  </si>
+  <si>
+    <t>12001500051001985</t>
+  </si>
+  <si>
+    <t>.12001500051000196</t>
+  </si>
+  <si>
+    <t>.12001500051000262</t>
   </si>
   <si>
     <t>12001500051001295</t>
   </si>
   <si>
-    <t>.11901500051002868</t>
-  </si>
-  <si>
-    <t>12001500051000455</t>
-  </si>
-  <si>
-    <t>12001500051000781</t>
-  </si>
-  <si>
-    <t>12001500051001214</t>
-  </si>
-  <si>
-    <t>.11901500051003333</t>
-  </si>
-  <si>
-    <t>12001500051000713</t>
-  </si>
-  <si>
-    <t>12001500051002103</t>
-  </si>
-  <si>
-    <t>.12002500004000050</t>
-  </si>
-  <si>
-    <t>12001500051000485</t>
-  </si>
-  <si>
-    <t>12001500051001066</t>
-  </si>
-  <si>
-    <t>12001500051000646</t>
-  </si>
-  <si>
-    <t>.12002500004000057</t>
-  </si>
-  <si>
-    <t>12001500051000576</t>
-  </si>
-  <si>
-    <t>12001500051001335</t>
-  </si>
-  <si>
-    <t>12001500051000625</t>
+    <t>.12001500051000263</t>
+  </si>
+  <si>
+    <t>12001500051001906</t>
+  </si>
+  <si>
+    <t>.12001500051000378</t>
+  </si>
+  <si>
+    <t>.12001500051000397</t>
   </si>
   <si>
     <t>12001500051001812</t>
   </si>
   <si>
-    <t>.12002500004000061</t>
-  </si>
-  <si>
-    <t>12001500051000798</t>
-  </si>
-  <si>
-    <t>12001500051000809</t>
-  </si>
-  <si>
-    <t>12001500051002339</t>
-  </si>
-  <si>
-    <t>.12002500004000073</t>
-  </si>
-  <si>
-    <t>12001500051001535</t>
-  </si>
-  <si>
-    <t>.12002500004000074</t>
-  </si>
-  <si>
-    <t>12001500051000710</t>
+    <t>.12001500051000419</t>
+  </si>
+  <si>
+    <t>12001500051001338.</t>
+  </si>
+  <si>
+    <t>12001500051001716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        </t>
   </si>
   <si>
     <t>12001500051001838</t>
   </si>
   <si>
-    <t>.12002500004000104</t>
-  </si>
-  <si>
-    <t>.12002500004000122</t>
-  </si>
-  <si>
-    <t>12001500051001492</t>
-  </si>
-  <si>
-    <t>.12002500004000141</t>
-  </si>
-  <si>
-    <t>12001500051001705</t>
-  </si>
-  <si>
-    <t>12001500051000945</t>
-  </si>
-  <si>
-    <t>12001500051002913</t>
-  </si>
-  <si>
-    <t>.12002500004000143</t>
-  </si>
-  <si>
-    <t>1.20.01500051.000880</t>
-  </si>
-  <si>
-    <t>12001500051001346</t>
-  </si>
-  <si>
-    <t>.12002500004000149</t>
-  </si>
-  <si>
-    <t>12001500051001889</t>
-  </si>
-  <si>
-    <t>.12002500004000157</t>
-  </si>
-  <si>
-    <t>1/2001500051000954</t>
-  </si>
-  <si>
-    <t>12001500051002250</t>
-  </si>
-  <si>
-    <t>.12001500051000196</t>
-  </si>
-  <si>
-    <t>12001500051001024</t>
-  </si>
-  <si>
-    <t>12001500051001716</t>
-  </si>
-  <si>
-    <t>.12001500051000262</t>
+    <t>.12001500051000455</t>
   </si>
   <si>
     <t>12001500051001822</t>
   </si>
   <si>
-    <t>.12001500051000263</t>
-  </si>
-  <si>
-    <t>12001500051001985</t>
-  </si>
-  <si>
-    <t>.12001500051000378</t>
-  </si>
-  <si>
-    <t>12001500051001916</t>
-  </si>
-  <si>
-    <t>.12001500051000397</t>
-  </si>
-  <si>
-    <t>12001500051001483</t>
-  </si>
-  <si>
-    <t>.12001500051000419</t>
-  </si>
-  <si>
-    <t>12001500051001338.</t>
-  </si>
-  <si>
-    <t>12001500051002024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        </t>
-  </si>
-  <si>
-    <t>12001500051001906</t>
-  </si>
-  <si>
-    <t>.12001500051000455</t>
-  </si>
-  <si>
     <t>.12001500051000465</t>
   </si>
   <si>
@@ -288,34 +276,7 @@
     <t>.12001500051000782</t>
   </si>
   <si>
-    <t>.12001500051000798</t>
-  </si>
-  <si>
-    <t>.12001500051000801    .</t>
-  </si>
-  <si>
-    <t>.12001500051000809</t>
-  </si>
-  <si>
-    <t>.12001500051000880</t>
-  </si>
-  <si>
-    <t>.12001500051000945</t>
-  </si>
-  <si>
-    <t>.12001500051001066</t>
-  </si>
-  <si>
-    <t>.12001500051001085</t>
-  </si>
-  <si>
-    <t>.12001500051001124</t>
-  </si>
-  <si>
-    <t>.12001500051001140</t>
-  </si>
-  <si>
-    <t>.12001500051001153</t>
+    <t>1200150005-1000644</t>
   </si>
 </sst>
 </file>
@@ -714,13 +675,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,8 +694,8 @@
     <col min="6" max="6" width="32.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="36.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="35.7109375" style="1" customWidth="1"/>
-    <col min="9" max="24" width="9.140625" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="25" width="9.140625" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -779,10 +740,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -810,7 +771,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -824,7 +785,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -835,10 +796,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -849,10 +810,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -863,10 +824,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -877,10 +838,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -891,10 +852,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -905,10 +866,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -919,10 +880,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -933,7 +894,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
@@ -947,10 +908,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
         <v>44</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -961,10 +922,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -975,10 +936,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -988,10 +949,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -1001,10 +962,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -1014,10 +975,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -1027,10 +988,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -1040,10 +1001,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -1053,10 +1014,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -1066,10 +1027,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -1079,10 +1040,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -1092,10 +1053,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -1105,10 +1066,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -1118,10 +1079,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -1130,10 +1091,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -1142,10 +1103,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -1154,10 +1115,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -1166,10 +1127,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -1178,10 +1139,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -1189,7 +1150,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
@@ -1198,10 +1159,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -1209,10 +1170,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -1221,7 +1182,7 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -1229,10 +1190,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -1240,10 +1201,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
@@ -1251,10 +1212,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
@@ -1262,101 +1223,14 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>88</v>
-      </c>
-      <c r="B43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43"/>
-      <c r="E43"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44"/>
-      <c r="E44"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>90</v>
-      </c>
-      <c r="B45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45"/>
-      <c r="E45"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46"/>
-      <c r="E46"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="E47"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48"/>
-      <c r="E48"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49"/>
-      <c r="E49"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50"/>
-      <c r="E50"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>96</v>
-      </c>
-      <c r="B51"/>
-      <c r="E51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
